--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i/ws/olvrng/hindex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuy\ws\hglossary.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C1E49-7309-984A-A13F-F4269A715E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D3F8E-9485-4722-9DF4-15CCA4552EDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{66377D00-0D60-4330-B699-E89825521F48}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{66377D00-0D60-4330-B699-E89825521F48}"/>
   </bookViews>
   <sheets>
     <sheet name="hospitality practitioner (term)" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="463">
   <si>
     <t>STT</t>
   </si>
@@ -620,9 +620,6 @@
     <t>Bộ phận văn phòng</t>
   </si>
   <si>
-    <t>Bizcation</t>
-  </si>
-  <si>
     <t>Front line</t>
   </si>
   <si>
@@ -690,12 +687,6 @@
   </si>
   <si>
     <t>Walk-in guest</t>
-  </si>
-  <si>
-    <t>Khách đặt phòng lưu trú trực tiếp tại quầy lễ tân</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công việc xếp phòng cho các đặt phòng chuẩn bị check in hoặc thay đổi phòng cho các khách đang lưu trú tại khách sạn. </t>
   </si>
   <si>
     <t>Transient</t>
@@ -726,9 +717,6 @@
     <t>Lead time</t>
   </si>
   <si>
-    <t>Khoảng thời gian từ khi khách đặt phòng đến khách check in</t>
-  </si>
-  <si>
     <t>CAPEX</t>
   </si>
   <si>
@@ -767,12 +755,6 @@
   <si>
     <t xml:space="preserve">F&amp;B
 </t>
-  </si>
-  <si>
-    <t>Các bộ phận không trực tiếp tiếp xúc với khách hàng như kế toán, nhân sự, sales &amp; marketing, IT.</t>
-  </si>
-  <si>
-    <t>Số lượng phòng sẵn bán nhất định dành cho các kênh bán hàng bên ngoài như OTA, đại lý du lịch, điều hành tour.</t>
   </si>
   <si>
     <t xml:space="preserve">Quá trình chia số lượng đêm phòng cho các kênh bán khác nhau trong một khoảng thời gian nhất định, do  bộ phận Doanh thu và Sales phối hợp thực hiện. </t>
@@ -839,38 +821,767 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Hệ thống quản lý khách hàng, [doanh thu chi phí](https://abc) mà một khách sạn sử dụng. PMS có thể được kết nối với POS hay CRS</t>
+  </si>
+  <si>
+    <t>Tour series</t>
+  </si>
+  <si>
+    <t>Wholesales</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>hotel classification</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>housekeeping</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Quản gia</t>
+  </si>
+  <si>
+    <t>hotel sales partner</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>front office</t>
+  </si>
+  <si>
+    <t>room type</t>
+  </si>
+  <si>
+    <t>f&amp;b package</t>
+  </si>
+  <si>
+    <t>room rate</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>traveller type</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>inroom</t>
+  </si>
+  <si>
+    <t>BEO</t>
+  </si>
+  <si>
+    <t>Banquet event order</t>
+  </si>
+  <si>
+    <t>BKG</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Khoảng thời gian từ khi khách booking đến khách check in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công việc xếp phòng cho các booking chuẩn bị check in hoặc thay đổi phòng cho các khách đang lưu trú tại khách sạn. </t>
+  </si>
+  <si>
+    <t>Vị trí thực hiện nhiệm vụ [[room assignment]], thường được đảm nhiệm bởi bộ phận Lễ tân. Thuật ngữ này phổ biến ở các khách sạn lớn nơi có số lượng booking lớn cần xử lý.</t>
+  </si>
+  <si>
+    <t>Bàn Cabaret</t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t>Central reservation system</t>
+  </si>
+  <si>
+    <t>Charter</t>
+  </si>
+  <si>
+    <t>Comp set</t>
+  </si>
+  <si>
+    <t>CPOR</t>
+  </si>
+  <si>
+    <t>Formula that calculates the average cost of occupied rooms. Used as a KPI to monitor operating costs</t>
+  </si>
+  <si>
+    <t>Crescent-round setup</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Customer Relationship Management</t>
+  </si>
+  <si>
+    <t>Displacement analysis</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Tồn kho</t>
+  </si>
+  <si>
+    <t>Early arrival</t>
+  </si>
+  <si>
+    <t>An agreement with a hotel that allows confirmed guests to check-in before the standard time.</t>
+  </si>
+  <si>
+    <t>Ecotourism</t>
+  </si>
+  <si>
+    <t>English Service</t>
+  </si>
+  <si>
+    <t>European Plan</t>
+  </si>
+  <si>
+    <t>Extranet</t>
+  </si>
+  <si>
+    <t>Folio</t>
+  </si>
+  <si>
+    <t>Business Centre</t>
+  </si>
+  <si>
+    <t>Global Distribution System</t>
+  </si>
+  <si>
+    <t>GDS</t>
+  </si>
+  <si>
+    <t>A computer software company that provides travel agencies with hardware for airplane, hotel, and car reservations.</t>
+  </si>
+  <si>
+    <t>Half-pension</t>
+  </si>
+  <si>
+    <t>Hotelligence</t>
+  </si>
+  <si>
+    <t>Historical electronic booking data reports from Global Distribution Systems (GDS) that include information on rates and length of stay patterns, business sources, for their local competitive sets, and individual subscriber properties.</t>
+  </si>
+  <si>
+    <t>Incidental</t>
+  </si>
+  <si>
+    <t>Intranet</t>
+  </si>
+  <si>
+    <t>Lanai</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Mattress Run</t>
+  </si>
+  <si>
+    <t>No-Show</t>
+  </si>
+  <si>
+    <t>OTA</t>
+  </si>
+  <si>
+    <t>Online Travel Agent</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>Pax</t>
+  </si>
+  <si>
+    <t>PPPN</t>
+  </si>
+  <si>
+    <t>PRPN</t>
+  </si>
+  <si>
+    <t>Quin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A setup template that reduces turnover times and work between events and thus results in a price break for the group.
+</t>
+  </si>
+  <si>
+    <t>Quick Set</t>
+  </si>
+  <si>
+    <t>RevPar</t>
+  </si>
+  <si>
+    <t>RevPAR Index</t>
+  </si>
+  <si>
+    <t>RPI</t>
+  </si>
+  <si>
+    <t>Revenue Per Available Square Foot</t>
+  </si>
+  <si>
+    <t>REVPAS</t>
+  </si>
+  <si>
+    <t>Run Of House</t>
+  </si>
+  <si>
+    <t>ROH</t>
+  </si>
+  <si>
+    <t>Two-pack Hotel</t>
+  </si>
+  <si>
+    <t>U-Shape Setup</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Very Important Person</t>
+  </si>
+  <si>
+    <t>Miscellaneous report</t>
+  </si>
+  <si>
+    <t>Căn hộ dịch vụ</t>
+  </si>
+  <si>
+    <t>Loại hình lưu trú căn hộ có đầy đủ chức năng như một nhà ở bao gồm phòng khách, phòng ngủ, bếp, phổ biến ở các khu chung cư.</t>
+  </si>
+  <si>
+    <t>Bed &amp; Breakfast</t>
+  </si>
+  <si>
+    <t>B&amp;B</t>
+  </si>
+  <si>
+    <t>Concierge</t>
+  </si>
+  <si>
+    <t>Rack rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá phòng công bố chưa có khuyến mại </t>
+  </si>
+  <si>
+    <t>Bungalow</t>
+  </si>
+  <si>
+    <t>Vacation rental</t>
+  </si>
+  <si>
+    <t>Theme park</t>
+  </si>
+  <si>
+    <t>Công viên chủ đề</t>
+  </si>
+  <si>
+    <t>Jacuzzi</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>Khách đặt phòng trực tiếp tại quầy lễ tân</t>
+  </si>
+  <si>
+    <t>Tờ tóm tắt các yêu cầu của một sự kiện sắp diễn ra, bao gồm các thông tin như tên khách hàng, ngày giờ, chương trình, menu, các yêu cầu dịch vụ khác, liên hệ.</t>
+  </si>
+  <si>
+    <t>Một đặt phòng đã thanh toán</t>
+  </si>
+  <si>
+    <t>Half-round table setup</t>
+  </si>
+  <si>
+    <t>Cabaret setup</t>
+  </si>
+  <si>
+    <t>banquet</t>
+  </si>
+  <si>
+    <t>Kiểu sắp xếp ghế xung quanh 2/3 hoặc 3/4 bàn, tất cả các ghế hướng về tâm điểm sân khấu</t>
+  </si>
+  <si>
+    <t>Hệ thống quản lý thông tin khách hàng và [[lead]]</t>
+  </si>
+  <si>
+    <t>Các công thức tài chính đánh giá chi phí cơ hội khi bán phòng cho [[group]] thay vì [[transient]]</t>
+  </si>
+  <si>
+    <t>Du lịch sinh thái</t>
+  </si>
+  <si>
+    <t>Loại hình du lịch dựa vào thiên nhiên và văn hóa bản địa gắn với giáo dục môi trường, có đóng góp cho nỗ lực bảo tồn và phát triển bền vững với sự tham gia tích cực của cộng đồng địa phương.</t>
+  </si>
+  <si>
+    <t>f&amp;b service</t>
+  </si>
+  <si>
+    <t>Family service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Món ăn được để trong một đĩa lớn, phục vụ mang tới cho chủ tiệc xem trước, sau đó chủ tiệc và những người tham gia lần lượt lấy một phần đồ ăn trên đĩa hoặc phục vụ có thể giúp chia đồ ăn lên đĩa cho khách.
+</t>
+  </si>
+  <si>
+    <t>Table service</t>
+  </si>
+  <si>
+    <t>American service</t>
+  </si>
+  <si>
+    <t>Plate service</t>
+  </si>
+  <si>
+    <t>French service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Món ăn được đặt sẵn trên đĩa hoặc khay, để trên một bàn riêng cạnh bàn ăn của khách, thực khách tự phục vụ hoặc nhân viên phục vụ theo yêu cầu của khách. Đây là kiểu phục vụ trong các nhà hàng cao cấp.
+</t>
+  </si>
+  <si>
+    <t>Cart French Service</t>
+  </si>
+  <si>
+    <t>Một biến thể của [[French service]]. Món ăn được đặt sẵn trên bàn riêng biệt bên cạnh bàn khách. Khách ngồi tại bàn, yêu cầu món, và bồi bàn sẽ phục vụ bên tay phải.</t>
+  </si>
+  <si>
+    <t>Banquet French Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Món ăn được bếp trình bày hoàn thiện trên đĩa, thực khách có thể dùng luôn.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Món ăn được bếp trình bày hoàn thiện, thực khách được phục vụ bên tay trái.
+</t>
+  </si>
+  <si>
+    <t>Gueridon Service</t>
+  </si>
+  <si>
+    <t>Món ăn được thực hiện trong bếp nhưng không hoàn thiện, phục vụ thực hiện trình diễn hoàn thiện món ăn trên xe đẩy Gueridon. Thực khách được chiêm ngưỡng tay nghề khéo léo của nhân viên nhà hàng, cảm nhận hương vị và vẻ đẹp của món ăn ngay từ công đoạn hoàn thiện.</t>
+  </si>
+  <si>
+    <t>Silver Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Món ăn được trình bày theo khẩu phần trên đĩa hoặc khay bạc, được giữ nóng trên bàn bên cạnh. Khi được yêu cầu, bồi bàn mang tới cho chủ tiệc xem trước, sau khi được chủ tiệc đồng ý, bồi bàn sử dụng muỗng nĩa của thực khách để lấy món ăn trên đĩa lớn vào đĩa khách. Thực khách sử dụng bộ muỗng nĩa cao cấp, thường bằng bạc. Đây là kiểu phục vụ tỏng các nhà hàng cao cấp. </t>
+  </si>
+  <si>
+    <t>Giá phòng không bao gồm bữa ăn</t>
+  </si>
+  <si>
+    <t>Hệ thống nhập liệu giá cả, số lượng sẵn bán, các điều khoản khác lên website của khách sạn</t>
+  </si>
+  <si>
+    <t>FAM trip</t>
+  </si>
+  <si>
+    <t>Familizartion Tour; FAM tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại hình du lịch có lịch trình được lên kế hoạch chi tiết, người tham dự thường thuộc một tổ chức thương mại tới tham quan để làm quen với địa điểm du lịch, nhằm mục đích kinh doanh mô hình tương tự hoặc tương lai đưa khách tham quan tới. </t>
+  </si>
+  <si>
+    <t>Tập tài liệu khách hàng, bao gồm giấy tờ thanh toán, nhận phòng… và được lưu trữ ở bộ phận [[Tiền sảnh]]</t>
+  </si>
+  <si>
+    <t>Khu dịch vụ văn phòng trong khách sạn dành cho khách lưu trú, cho phép khách lưu trú sử dụng máy tính, máy in, hoặc cung cấp không gian đọc sách báo, làm việc yên tĩnh cho khách.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tương tự như [[Half-board package]], tuy nhiên bữa ăn thứ hai là bữa tối. </t>
+  </si>
+  <si>
+    <t>Kiểu sắp xếp tất cả bàn/ghế đối mặt vào nhau.</t>
+  </si>
+  <si>
+    <t>Hollow Setup</t>
+  </si>
+  <si>
+    <t>Các khoản chi tiêu phát sinh ngoài gói phòng của khách.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mạng lưới máy tính sử dụng Internet chia sẻ thông tin riêng tư với nhau. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng có sân trong hoặc ban công hướng ra vườn hoặc mặt nước. </t>
+  </si>
+  <si>
+    <t>Khách tiềm năng có quan tâm dịch vụ nhưng chưa chính thức đặt hay thanh toán.</t>
+  </si>
+  <si>
+    <t>Kiểu khách lưu trú một vài đêm nhất định để đạt đủ điểm cho chương trình khách hàng thân thiết của một khách sạn.</t>
+  </si>
+  <si>
+    <t>Khách không check-in, không liên lạc với bên cung cấp dịch vụ để hủy hay thay đổi [[booking]]</t>
+  </si>
+  <si>
+    <t>Đại lý du lịch bán phòng hoặc dịch vụ trên Internet</t>
+  </si>
+  <si>
+    <t>Vách ngăn di động được dùng để ngăn một không gian lớn thành các không gian nhỏ hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách. Thường dùng khi nói về số lượng khách, ví dụ 2 pax = 2 khách. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per Person, Per Night. </t>
+  </si>
+  <si>
+    <t>Per Room, Per Night</t>
+  </si>
+  <si>
+    <t>Phòng dành cho 5 khách lưu trú.</t>
+  </si>
+  <si>
+    <t>Revenue Per Available Room</t>
+  </si>
+  <si>
+    <t>Doanh thu trung bình trên phòng sẵn bán. Công thức = Tổng doanh thu/Tổng số phòng sẵn bán.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ số đo lường tương quan [[RevPar]] của một khách sạn với các đối thủ trong [[comp set]]. Công thức = RevPar/RevPar trung bình của đối thủ trong compset. 
+RPI = 1: 
+RPI &gt; 1:
+RPI &lt;1: </t>
+  </si>
+  <si>
+    <t>Chỉ số đo lường mức độ thành công của việc bán diện tích tổ chức sự kiện của một cơ sở tại một thời điểm. Công thức = Tổng diện tích không gian bán ra/Tổng diện tích không gian sẵn có.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại phòng bất kỳ còn trống của một khách sạn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai khách sạn nối liền nhau, sử dụng chung một số nguồn lực như nhân sự [[back office]], tuy nhiên vẫn là hai khách sạn độc lập có báo cáo tài chính và pháp lý độc lập. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểu sắp xếp bàn/ghế theo hình chữ U.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Important Person = Khách quan trọng cần được lưu tâm chăm sóc hơn so với các khách khác. </t>
+  </si>
+  <si>
+    <t>Phòng có đầy đủ giường ngủ, bếp, khu vực khách, buồng tắm nằm trong một không gian chung, không có vách ngăn (trừ buồng tắm)</t>
+  </si>
+  <si>
+    <t>Bồn sục</t>
+  </si>
+  <si>
+    <t>Bồn tắm hoặc hồ bơi nước nóng sử dụng thủy liệu pháp với hệ thống vòi phun nước mạnh nhằm mục đích đem đến trải nghiệm massage thư giãn cho khách lưu trú</t>
+  </si>
+  <si>
+    <t>các amenity được cung cấp trong khách sạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Tại sao mua phòng trực tiếp tại khách sạn cao hơn giá mua qua trung gian?</t>
+  </si>
+  <si>
+    <r>
+      <t>EBITDAR trong ngành khách sạn tương đồng với EBITDA trong kế toán doanh thường thấy, tuy nhiên EBITDAR khách sạn không tính chi phí thuê mặt bằng (Rent) vào Tổng chi phí (Expenses).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tổng chi phí ở đây không bao gồm lãi suất, thuế, khấu hao tài sản, chi phí mặt bằng
+EBITDAR = Doanh thu - Chi phí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Tại sao khách sạn không tính chi phí thuê mặt bằng vào EBITDAR</t>
+  </si>
+  <si>
+    <t>đọc thêm: gross profit in hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lợi nhuận gộp
+</t>
+  </si>
+  <si>
+    <t>Gross Profit, GP</t>
+  </si>
+  <si>
+    <t>Về mặt kế toán, GP trong ngành dịch vụ cũng tương tự như GP trong các ngành khác. Điều quan trọng cần xác định những hạng mục trong Chi phí sản xuất hay cung cấp dịch vụ để tối ưu hóa doanh thu - chi phí. Chi phí cung cấp dịch vụ đêm phòng nghỉ có thể bao gồm chi phí nhân công dọn phòng, chi phí amenity. Chi phí cung cấp dịch vụ nhà hàng có thể bao gồm chi phí nguyên vật liệu sản xuất món ăn, chi phí nhân công thực hiện món ăn, chi phí nhân sự phục vụ món ăn. 
+Lợi nhuận gộp = Doanh thu - Chi phí sản xuất</t>
+  </si>
+  <si>
+    <t>Bài viết liên quan</t>
+  </si>
+  <si>
+    <t>Sub category (dùng cho thuật ngữ liên quan)</t>
+  </si>
+  <si>
+    <t>Lợi nhuận vận hành gộp sau điều chỉnh</t>
+  </si>
+  <si>
+    <t>Adjusted Gross 
+Operating Profit, ADOP</t>
+  </si>
+  <si>
+    <t>Lợi nhuận vận hành gộp sau điều chỉnh = Lợi nhuận vận hành gộp (GOP) - Chi phí trả công ty quản lý (hotel base management fees)</t>
+  </si>
+  <si>
+    <t>Buffet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các vật dụng được cung cấp trong phòng khách sạn, phục vụ cho sinh hoạt cá nhân của khách hàng, nhằm mục đích gia tăng mức độ tiện lợi và cảm giác thoải mái cho khách hàng. Chi phí amenity là chi phí biến đổi (variable cost) nằm trong chi phí vận hành hàng ngày của khách sạn.
+</t>
+  </si>
+  <si>
+    <t>Khách hàng thoải mái thưởng thức tất cả các món ăn được bày sẵn.</t>
+  </si>
+  <si>
+    <t>Số lượng phòng sẵn bán nhất định dành cho các kênh bán hàng bên ngoài như [[OTA]], [[đại lý du lịch]], [[điều hành tour]].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Bed Rate
+</t>
+  </si>
+  <si>
+    <t>ABR, Giá giường trung bình</t>
+  </si>
+  <si>
+    <t>Song song chỉ số [[ARR]], ABR được sử dụng để đánh giá khả năng tối ưu doanh thu trên giường thay vì trên phòng. Chỉ số này thường được các cơ sở kinh doanh loại phòng nhiều giường ngủ sử dụng.
+ABR = Tổng doanh thu phòng bán/Tổng số giường của phòng bán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Daily Rate
+</t>
+  </si>
+  <si>
+    <t>ADR, Giá phòng trung bình trên ngày</t>
+  </si>
+  <si>
+    <t>ADR là một trong những chỉ số tài chính phổ biến nhất trong vận hành khách sạn. ADR đo lường và so sánh giá cả khách hàng sẵn sàng trả giữa các khách sạn cùng cấp độ với nhau về quy mô, tập khách hàng, địa điểm.
+Các phòng miễn phí như [[House Use]] và [[Complimentary room]] không được tính vào ADR
+ADR = Tổng doanh thu phòng bán trong ngày/Tổng phòng bán trong ngày</t>
+  </si>
+  <si>
+    <t>house use</t>
+  </si>
+  <si>
+    <t>complimentary room</t>
+  </si>
+  <si>
+    <t>điều hành tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đại lý du lịch </t>
+  </si>
+  <si>
+    <t>Thời gian lưu trú trung bình, Average Length of Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOS
+</t>
+  </si>
+  <si>
+    <t>ALOS là số ngày một khách lưu trú trung bình tại một khách sạn, được tính trong một quãng thời gian nhất định. ALOS có ý nghĩa trong việc đánh giá tệp khách hàng để thiết kế sản phẩm và giá bán phù hợp.
+ALOS phụ thuộc lớn vào địa điểm. 
+ALOS = Tổng số đêm bán ra trong một giai đoạn/Tổng số booking</t>
+  </si>
+  <si>
+    <t>comp set</t>
+  </si>
+  <si>
+    <t>ARI là tỷ lệ [[ADR]] của một khách sạn so với [[ADR]] trung bình của nhóm khách sạn trong [[comp set]] trong cùng một giai đoạn.
+ARI = ADR của khách sạn/ ADR trung bình của nhóm đối thủ trong [[comp set]
+ARI = 1: giá bán trung bình của khách sạn tương đồng giá bán trung bình của đối thủ
+ARI &gt; 1: giá bán trung bình của khách sạn cao hơn giá bán trung bình của đối thủ
+ARI &lt; 1: giá bán trung bình của khách sạn thấp hơn giá bán trung bình của đối thủ
+Khách sạn cân đối giữa [[Occupancy]] và ARI để quyết định thay đổi giá bán nhằm tăng thêm doanh thu và tăng khả năng cạnh tranh.</t>
+  </si>
+  <si>
+    <t>Average Rate per Guest, Giá phòng trung bình trên khách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG
+</t>
+  </si>
+  <si>
+    <t>Giá mỗi khách lưu trú thực trả cho phòng được đặt. Khách sạn đảm bảo chênh lệch giữa ARG và [[ADR]] là nhỏ cho cùng một loại phòng.
+ARG = Tổng doanh thu phòng bán/Tổng số khách lưu trú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR
+</t>
+  </si>
+  <si>
+    <t>ARR là giá phòng trung bình, tương đối giống với [[ADR]]. ADR đo lường giá bán theo ngày, còn ARR có thể dùng để đo lường giá bán cho một giai đoạn như tuần, tháng, năm.
+ARR = Tổng doanh thu phòng bán/Tổng số phòng bán</t>
+  </si>
+  <si>
+    <t>Các bộ phận không trực tiếp tiếp xúc với khách hàng như Kế toán, Nhân sự, Sales &amp; Marketing, IT.</t>
+  </si>
+  <si>
+    <t>Giá tốt nhất sẵn có hay giá niêm yết của một khách sạn.</t>
+  </si>
+  <si>
+    <t>Loại bàn dùng trong [[cabaret setup]].</t>
+  </si>
+  <si>
+    <t>Giá bao gồm phòng và bữa sáng.</t>
+  </si>
+  <si>
+    <t>Du lịch công vụ</t>
+  </si>
+  <si>
+    <t>Bleisure, Bizcation</t>
+  </si>
+  <si>
+    <t>Boutique không thuộc phân loại khách sạn chính thống nên không có tiêu chuẩn rõ ràng. Tuy nhiên, boutique có những tiêu chuẩn ngầm hiểu bao gồm số phòng nhỏ hơn 100, là [[independent hotel]] hoặc thuộc một boutique [[chain hotel]], thiết kế độc đáo và khác biệt với bất cứ một khách sạn nào khác, tập trung cao vào trải nghiệm của khách lưu trú.</t>
+  </si>
+  <si>
+    <t>Loại phòng một tầng, mái hiên rộng.</t>
+  </si>
+  <si>
+    <t>Một hoặc nhiều nhân sự chăm sóc tại phòng cho khách bên cạnh các dịch vụ khác sẵn có của khách sạn. Quản gia có thể sắp xếp lịch trình vui chơi trong khách sạn cho khách, thay khách thực yêu cầu dịch vụ.</t>
+  </si>
+  <si>
+    <t>Kiểu sắp xếp ghế xung quanh một nửa bàn, nửa bàn còn lại để trống, tất cả các ghế đều hướng về tâm điểm sân khấu</t>
+  </si>
+  <si>
+    <t>Apartment hotel aparthotel</t>
+  </si>
+  <si>
+    <t>Capsule hotel</t>
+  </si>
+  <si>
+    <t>Pod hotel, Khách sạn con nhộng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại hình lưu trú cung cấp các buồng ngủ nhỏ vừa đủ một người nằm trong một không gian chung và sử dụng phòng tắm chung, có thể có bữa sáng. Thường được xây dựng ở các thành phố có diện tích xây dựng hạn chế và thu hút các khách du lịch trẻ tuổi, thích tự do và khám phá. Singapore là đất nước phổ biến loại hình khách sạn này. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại hình cung cấp dịch vụ ăn uống tới địa điểm bên ngoài, thường phục vụ cho các tiệc nhiều người. </t>
+  </si>
+  <si>
+    <t>Hệ thống đặt phòng trung tâm quản lý tất cả [[BKG]] từ tất cả các kênh bán hàng.</t>
+  </si>
+  <si>
+    <t>Khách sạn chuỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại khách sạn thuộc chuỗi các khách sạn sở hữu và điều hành bởi một công ty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết tắt của competitive set, là tập hợp 5-10 đối thủ trực tiếp của một khách sạn. Comp set được dùng để so sánh mức độ hoạt động hiệu quả của một khách sạn so với đối thủ của nó. </t>
+  </si>
+  <si>
+    <t>Các dịch vụ/vật dụng miễn phí cho khách. Các dịch vụ/vật dụng miễn phí tiêu biểu có wifi, nước lọc (giới hạn số lượng trên khách mỗi đêm ở), dọn phòng, nâng cấp hạng phòng (thường áp dụng cho khách trung thành hoặc khách quan trọng), trà túi lọc, cà phê gói... 
+Mặc dù đều có nghĩa "miễn phí" đối với khách hàng, khách sạn thường dùng từ "complimentary" thay cho "free" bởi vì "complimentary" nghĩa rằng khách sạn cần bỏ nhiều nỗ lực vào sản phẩm hay dịch vụ đó hơn, thể hiện ý chí làm hài lòng khách của khách sạn. Dù vậy, tất cả các dịch vụ/vật dụng "complimentary" đều đã được thầm lặng tính vào giá phòng.</t>
+  </si>
+  <si>
+    <t>Bộ phận giải đáp hoặc hỗ trợ trực tiếp các yêu cầu trải nghiệm tại khách sạn cho khách lưu trú. Các yeu cầu trải nghiệm thường liên quan đến thông tin du lịch tại khu vực, phương tiện vận chuyển… Concierge có thể thuộc [[Front Office]] hoặc không.</t>
+  </si>
+  <si>
+    <t>Condotel = condo (condominium) và tel (hotel). Về cơ bản, condotel vận hành như một khách sạn thông thường. Tuy nhiên, về tính sở hữu, khách sạn là tài sản của một đơn vị kinh doanh có tính pháp lý, trong khi đó khách sạn căn hộ là tài sản của nhiều cá nhân khác nhau. Các cá nhân sở hữu căn hộ condotel ký thỏa thuận cho một đơn vị kinh doanh thuê lại căn hộ để kinh doanh như một khách sạn trong một thời gian cố định.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại phòng có cửa thông qua một phòng khác. Cửa này có khóa ở 2 bên của 2 phòng. Áp dụng cho các khách gia đình, tăng độ tiện nghi về di chuyển giữa 2 phòng và tạo trải nghiệm kết nối cho các khách ở 2 phòng khác nhau. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại bữa sáng nhẹ nhàng hơn [[American Breakfast]]. Bữa sáng continental bao gồm bánh nướng, trái cây, ngũ cốc, và cà phê, thường được phục vụ theo hình thức buffet, khá tương tự bữa sáng truyền thống ở một số khu vực châu Âu như Pháp hay Địa Trung Hải. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại hình kinh doanh các dịch vụ lưu trú, ăn uống, giải trí trên một du thuyền chạy trên biển từ vài ngày cho đến cả một năm. </t>
+  </si>
+  <si>
+    <t>Chỉ loại phòng bán cho khách sử dụng trong ngày, thường là 12 tiếng.</t>
+  </si>
+  <si>
+    <t>Phòng tiện nghi cho người khuyết tật, Disabled room, Accessible room</t>
+  </si>
+  <si>
+    <t>Handicaped room</t>
+  </si>
+  <si>
+    <t>Loại phòng được thiết kế dễ dàng cho người khuyết tật di chuyển và sử dụng. Các thiết kế nắm cửa, kích thước lối ra vào, tay vịn, mặt sàn phẳng là các yếu tố tạo nên sự khác biệt giữa loại phòng này và phòng thường.</t>
+  </si>
+  <si>
+    <t>Related term</t>
+  </si>
+  <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Related term</t>
-  </si>
-  <si>
-    <t>Vị trí thực hiện nhiệm vụ [[room assignment]], thường được đảm nhiệm bởi bộ phận Lễ tân. Thuật ngữ này phổ biến ở các khách sạn lớn nơi có số lượng đặt phòng lớn cần xử lý.</t>
-  </si>
-  <si>
-    <t>Bleisure;
-Du lịch công vụ</t>
-  </si>
-  <si>
-    <t>This is a sample content</t>
-  </si>
-  <si>
-    <t>Samplex</t>
-  </si>
-  <si>
-    <t>Hệ thống quản lý khách hàng, [doanh thu chi phí](https://abc) mà một khách sạn sử dụng. PMS có thể được kết nối với POS hay CRS</t>
-  </si>
-  <si>
-    <t>Tour series</t>
-  </si>
-  <si>
-    <t>Wholesales</t>
   </si>
 </sst>
 </file>
@@ -918,7 +1629,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -941,11 +1652,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,6 +1734,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,796 +2088,3034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD20B6C-BD3E-4D53-8FCA-55DEE4A6A737}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="81.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.83984375" customWidth="1"/>
+    <col min="2" max="2" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.68359375" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="81.3125" customWidth="1"/>
+    <col min="7" max="7" width="48.47265625" customWidth="1"/>
+    <col min="8" max="8" width="14.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F2" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="F3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>167</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="14"/>
+        <v>210</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="F4" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+        <v>411</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>168</v>
+        <v>408</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>212</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>251</v>
+      </c>
       <c r="F5" s="13" t="s">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>24</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>174</v>
+      <c r="B6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="112.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="28">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="98.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="28">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="28">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="28">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="28">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="28">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="28">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="28">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="28">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="28">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="28">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="28">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="28">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="28">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="28">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="28">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="28">
+        <v>59</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="28">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="28">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="28">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="28">
+        <v>63</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" ht="112.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="28">
+        <v>64</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="28">
+        <v>65</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="28">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="28">
+        <v>67</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="28">
+        <v>68</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="28">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="28">
+        <v>70</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="28">
+        <v>71</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="28">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="28">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="28">
+        <v>74</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="28">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="28">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="28">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="28">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="28">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="28">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="28">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="28">
+        <v>82</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>23</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="C83" s="13"/>
+      <c r="D83" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="28">
+        <v>83</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="28">
+        <v>84</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="28">
+        <v>85</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="28">
+        <v>86</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="31"/>
+      <c r="D87" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+    </row>
+    <row r="88" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="28">
+        <v>87</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="31"/>
+      <c r="D88" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F88" s="34"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="28">
+        <v>88</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+    </row>
+    <row r="90" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="28">
+        <v>89</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="28">
+        <v>90</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="28">
+        <v>91</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+    </row>
+    <row r="93" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="28">
+        <v>92</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="28">
+        <v>93</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F94" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="28">
+        <v>94</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+    </row>
+    <row r="96" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="28">
+        <v>95</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+    </row>
+    <row r="97" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="28">
+        <v>96</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+    </row>
+    <row r="98" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="28">
+        <v>97</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F98" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+    </row>
+    <row r="99" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="28">
+        <v>98</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+    </row>
+    <row r="100" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="28">
+        <v>99</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="F100" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+    </row>
+    <row r="101" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="28">
+        <v>100</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" s="32"/>
+      <c r="H101" s="33"/>
+    </row>
+    <row r="102" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="28">
+        <v>101</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+    </row>
+    <row r="103" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="28">
+        <v>102</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+    </row>
+    <row r="104" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="28">
+        <v>103</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="28">
+        <v>104</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F105" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="28">
+        <v>105</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="30"/>
+      <c r="F106" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+    </row>
+    <row r="107" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="28">
+        <v>106</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" s="30"/>
+      <c r="E107" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="28">
+        <v>107</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="28">
+        <v>108</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+    </row>
+    <row r="110" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="28">
+        <v>109</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110" s="30"/>
+      <c r="E110" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="28">
+        <v>110</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="28">
+        <v>111</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+    </row>
+    <row r="113" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="28">
+        <v>112</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="28">
+        <v>113</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="33"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="28">
+        <v>114</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="28">
+        <v>115</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+    </row>
+    <row r="117" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="28">
+        <v>116</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="28">
+        <v>117</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E118" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F118" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="28">
+        <v>118</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E119" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="F119" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+    </row>
+    <row r="120" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="28">
+        <v>119</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+    </row>
+    <row r="121" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="28">
+        <v>120</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+    </row>
+    <row r="122" spans="1:8" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="28">
+        <v>121</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+    </row>
+    <row r="123" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="28">
+        <v>122</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="28">
+        <v>123</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E124" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+    </row>
+    <row r="125" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="28">
+        <v>124</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E125" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F125" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+    </row>
+    <row r="126" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="28">
+        <v>125</v>
+      </c>
+      <c r="B126" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>25</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>11</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>13</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="C126" s="30"/>
+      <c r="D126" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+    </row>
+    <row r="127" spans="1:8" ht="98.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="28">
+        <v>126</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F127" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
+    </row>
+    <row r="128" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="28">
+        <v>127</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E128" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+    </row>
+    <row r="129" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="28">
+        <v>128</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+    </row>
+    <row r="130" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="28">
+        <v>129</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G130" s="32"/>
+      <c r="H130" s="33"/>
+    </row>
+    <row r="131" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="28">
+        <v>130</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E131" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="F131" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+    </row>
+    <row r="132" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="28">
+        <v>131</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G132" s="32"/>
+      <c r="H132" s="33"/>
+    </row>
+    <row r="133" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="28">
+        <v>132</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G133" s="32"/>
+      <c r="H133" s="33"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="28">
+        <v>133</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="28">
+        <v>134</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E135" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+    </row>
+    <row r="136" spans="1:8" ht="98.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="28">
+        <v>135</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+    </row>
+    <row r="137" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="28">
+        <v>136</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="28">
+        <v>137</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="F138" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G138" s="32"/>
+      <c r="H138" s="33"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="28">
+        <v>138</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D139" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F139" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G139" s="32"/>
+      <c r="H139" s="33"/>
+    </row>
+    <row r="140" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="28">
+        <v>139</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F140" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+    </row>
+    <row r="141" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="28">
+        <v>140</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G141" s="32"/>
+      <c r="H141" s="33"/>
+    </row>
+    <row r="142" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="28">
+        <v>141</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+    </row>
+    <row r="143" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="28">
+        <v>142</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E143" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="F143" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="28">
+        <v>143</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E144" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+    </row>
+    <row r="145" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="28">
+        <v>144</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+    </row>
+    <row r="146" spans="1:8" ht="98.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="28">
+        <v>145</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F146" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="28">
+        <v>146</v>
+      </c>
+      <c r="B147" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>14</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>15</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13" t="s">
+      <c r="C147" s="32"/>
+      <c r="D147" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E147" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>17</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>18</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>19</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
-        <v>20</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
-        <v>22</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>21</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="F147" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G147" s="32"/>
+      <c r="H147" s="33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G53">
-    <sortCondition ref="B15:B53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H147">
+    <sortCondition ref="B1:B147"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D509F210-CAD3-438A-9653-43F68F5C50EE}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="10"/>
-    <col min="2" max="2" width="18.1640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="8.83984375" style="10"/>
+    <col min="2" max="2" width="18.15625" style="12" customWidth="1"/>
+    <col min="3" max="5" width="15.47265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="40.47265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.47265625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.47265625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2126,17 +5125,19 @@
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="56.4" x14ac:dyDescent="0.5">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -2146,13 +5147,15 @@
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="141" x14ac:dyDescent="0.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2162,17 +5165,19 @@
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="211.5" x14ac:dyDescent="0.5">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2182,17 +5187,19 @@
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="126.9" x14ac:dyDescent="0.5">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2202,15 +5209,17 @@
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="183.3" x14ac:dyDescent="0.5">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2220,17 +5229,19 @@
       <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="141" x14ac:dyDescent="0.5">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2240,17 +5251,19 @@
       <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="98.7" x14ac:dyDescent="0.5">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2260,17 +5273,19 @@
       <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="112.8" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2280,15 +5295,17 @@
       <c r="C10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="141" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2298,114 +5315,157 @@
       <c r="C11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="112.8" x14ac:dyDescent="0.5">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="13" t="s">
-        <v>198</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G12" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="42.3" x14ac:dyDescent="0.5">
       <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="56.4" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="7"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="7"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="7"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="7"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B32" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B33" s="12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B34" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B35" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B36" s="12" t="s">
+        <v>425</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H19">
     <sortCondition ref="B1:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2415,22 +5475,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1ACA1FF-794F-4817-BC7E-1CA784944760}">
-  <dimension ref="A2:F54"/>
+  <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="64.6640625" customWidth="1"/>
-    <col min="6" max="6" width="39.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.3125" customWidth="1"/>
+    <col min="2" max="2" width="22.47265625" customWidth="1"/>
+    <col min="3" max="5" width="11.47265625" customWidth="1"/>
+    <col min="6" max="6" width="64.68359375" customWidth="1"/>
+    <col min="7" max="7" width="39.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="17" customFormat="1" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2443,14 +5503,15 @@
       <c r="D2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2459,14 +5520,15 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="70.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2475,16 +5537,17 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2493,16 +5556,17 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="98.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -2513,16 +5577,17 @@
         <v>51</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="G6" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -2531,14 +5596,15 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -2549,14 +5615,15 @@
         <v>125</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2567,14 +5634,15 @@
         <v>144</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -2585,12 +5653,13 @@
         <v>155</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="126.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2599,14 +5668,15 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -2617,14 +5687,15 @@
         <v>127</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="42.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2635,14 +5706,15 @@
         <v>98</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="84.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2651,16 +5723,17 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -2671,12 +5744,13 @@
         <v>145</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -2685,14 +5759,15 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -2703,14 +5778,15 @@
         <v>161</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -2719,12 +5795,13 @@
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2733,12 +5810,13 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="56.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2749,14 +5827,15 @@
         <v>62</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="70.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -2767,14 +5846,15 @@
         <v>63</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="84.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -2785,14 +5865,15 @@
         <v>108</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -2803,14 +5884,15 @@
         <v>142</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="84.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -2819,14 +5901,15 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="141" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -2837,14 +5920,15 @@
         <v>72</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="98.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -2855,14 +5939,15 @@
         <v>67</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="42.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -2871,14 +5956,15 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -2887,14 +5973,15 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -2903,12 +5990,13 @@
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -2917,14 +6005,15 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -2935,14 +6024,15 @@
         <v>141</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -2951,12 +6041,13 @@
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E32" s="24"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="24"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -2965,12 +6056,13 @@
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="9">
         <v>32</v>
       </c>
@@ -2981,12 +6073,13 @@
         <v>154</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9">
         <v>33</v>
       </c>
@@ -2997,12 +6090,13 @@
         <v>156</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9">
         <v>34</v>
       </c>
@@ -3011,12 +6105,13 @@
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9">
         <v>35</v>
       </c>
@@ -3027,14 +6122,15 @@
         <v>121</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E37" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9">
         <v>36</v>
       </c>
@@ -3043,14 +6139,15 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="9">
         <v>37</v>
       </c>
@@ -3061,14 +6158,15 @@
         <v>147</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="9">
         <v>38</v>
       </c>
@@ -3079,14 +6177,15 @@
         <v>143</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="9">
         <v>39</v>
       </c>
@@ -3097,14 +6196,15 @@
         <v>116</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E41" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" ht="42.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="9">
         <v>40</v>
       </c>
@@ -3115,14 +6215,15 @@
         <v>86</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E42" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="42.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9">
         <v>41</v>
       </c>
@@ -3133,14 +6234,15 @@
         <v>89</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" ht="56.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9">
         <v>42</v>
       </c>
@@ -3151,14 +6253,15 @@
         <v>95</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E44" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="9">
         <v>43</v>
       </c>
@@ -3167,14 +6270,15 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" ht="126.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="9">
         <v>44</v>
       </c>
@@ -3185,14 +6289,15 @@
         <v>71</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E46" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="9">
         <v>45</v>
       </c>
@@ -3203,14 +6308,15 @@
         <v>106</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="9">
         <v>46</v>
       </c>
@@ -3221,14 +6327,15 @@
         <v>113</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E48" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="9">
         <v>47</v>
       </c>
@@ -3239,14 +6346,15 @@
         <v>91</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="9">
         <v>48</v>
       </c>
@@ -3257,47 +6365,52 @@
         <v>117</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="9"/>
       <c r="B51" s="20"/>
       <c r="C51" s="24"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E51" s="20"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="9"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="9"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="9"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G54">
     <sortCondition ref="B1:B54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3309,9 +6422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE8969-EF43-4FCF-B20E-A827D3E37DF0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3319,27 +6434,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E94DDCB-8980-4864-AD05-4BBDD9EF1CC4}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuy\ws\hglossary.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D3F8E-9485-4722-9DF4-15CCA4552EDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556A0649-9E56-4CF2-B1AE-E98750130ECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{66377D00-0D60-4330-B699-E89825521F48}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="business model" sheetId="5" r:id="rId4"/>
     <sheet name="các bài viết" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="dieu_48" localSheetId="1">'finance term'!$D$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +40,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CFEB4919-5812-402E-BE3B-09AA93425359}</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{CFEB4919-5812-402E-BE3B-09AA93425359}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    lead time = thời gian tối thiểu cho phép cancel booking mà không bị phạt</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="641">
   <si>
     <t>STT</t>
   </si>
@@ -611,9 +632,6 @@
     <t>Allotment</t>
   </si>
   <si>
-    <t>Suất phòng bán</t>
-  </si>
-  <si>
     <t>Back office</t>
   </si>
   <si>
@@ -638,15 +656,6 @@
     <t>Corp contract</t>
   </si>
   <si>
-    <t>Gov contract</t>
-  </si>
-  <si>
-    <t>High season</t>
-  </si>
-  <si>
-    <t>Low season</t>
-  </si>
-  <si>
     <t>Mùa cao điểm</t>
   </si>
   <si>
@@ -674,9 +683,6 @@
     <t>POS</t>
   </si>
   <si>
-    <t>Point of Sales</t>
-  </si>
-  <si>
     <t>CRS</t>
   </si>
   <si>
@@ -690,9 +696,6 @@
   </si>
   <si>
     <t>Transient</t>
-  </si>
-  <si>
-    <t>Khách lưu trú ngắn ngày</t>
   </si>
   <si>
     <t>P&amp;L</t>
@@ -768,9 +771,6 @@
     <t>Hình thức kinh doanh nhượng quyền thương mại diễn ra khi một công ty cho phép một bên khác sử dụng thương hiệu và các hệ thống tiêu chuẩn như quy trình vận hành, tiêu chuẩn dịch vụ... của mình để kinh doanh.</t>
   </si>
   <si>
-    <t>Các nhân sự tiếp xúc trực tiếp với khách hàng như nhân viên Tiền sảnh, Nhà hàng, Bảo vệ, Spa.</t>
-  </si>
-  <si>
     <t>Nhượng quyền thương mại</t>
   </si>
   <si>
@@ -778,24 +778,12 @@
   </si>
   <si>
     <t>Nhóm ngành cung cấp dịch vụ lưu trú, ăn uống, du lịch, giải trí tới khách hàng.</t>
-  </si>
-  <si>
-    <t>Khách du lịch từ các nước và vùng lãnh thổ khác đến thăm quan du lịch đất nước bản địa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khoảng thời gian khi số phòng hoặc số bàn hoặc khả năng cung cấp dịch vụ thường được đặt ít, còn rất nhiều tồn kho. Mùa thấp điểm tùy thuộc vào thời tiết. </t>
   </si>
   <si>
     <t xml:space="preserve">Viết tắt của Meetings (hội họp), Incentives (khen thưởng), Conferences (hội nghị) and Exhibitions (triển lãm).
 MICE là loại hình du lịch kết hợp hội họp, hội thảo, triển lãm, du lịch khen thưởng, tổ chức sự kiện. MICE có số lượng người tham dự lớn và có thể diễn ra trong nhiều ngày. </t>
   </si>
   <si>
-    <t>Tỷ lệ số phòng, số bàn được bán ra trong một thời điểm (ngày, tháng, năm)</t>
-  </si>
-  <si>
-    <t>Khách du lịch trong nước đi tham quan các nước, vùng lãnh thổ khác.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Các vật dụng được cung cấp trong phòng khách sạn, phục vụ cho sinh hoạt cá nhân của khách hàng, nhằm mục đích gia tăng mức độ tiện lợi và cảm giác thoải mái cho khách hàng. Chi phí amenity là chi phí biến đổi (variable cost) nằm trong chi phí vận hành hàng ngày của khách sạn
 </t>
   </si>
@@ -827,9 +815,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Hệ thống quản lý khách hàng, [doanh thu chi phí](https://abc) mà một khách sạn sử dụng. PMS có thể được kết nối với POS hay CRS</t>
-  </si>
-  <si>
     <t>Tour series</t>
   </si>
   <si>
@@ -854,12 +839,6 @@
     <t>service</t>
   </si>
   <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>Quản gia</t>
-  </si>
-  <si>
     <t>hotel sales partner</t>
   </si>
   <si>
@@ -906,15 +885,6 @@
   </si>
   <si>
     <t>Booking</t>
-  </si>
-  <si>
-    <t>Khoảng thời gian từ khi khách booking đến khách check in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công việc xếp phòng cho các booking chuẩn bị check in hoặc thay đổi phòng cho các khách đang lưu trú tại khách sạn. </t>
-  </si>
-  <si>
-    <t>Vị trí thực hiện nhiệm vụ [[room assignment]], thường được đảm nhiệm bởi bộ phận Lễ tân. Thuật ngữ này phổ biến ở các khách sạn lớn nơi có số lượng booking lớn cần xử lý.</t>
   </si>
   <si>
     <t>Bàn Cabaret</t>
@@ -1080,12 +1050,6 @@
     <t>Miscellaneous report</t>
   </si>
   <si>
-    <t>Căn hộ dịch vụ</t>
-  </si>
-  <si>
-    <t>Loại hình lưu trú căn hộ có đầy đủ chức năng như một nhà ở bao gồm phòng khách, phòng ngủ, bếp, phổ biến ở các khu chung cư.</t>
-  </si>
-  <si>
     <t>Bed &amp; Breakfast</t>
   </si>
   <si>
@@ -1098,9 +1062,6 @@
     <t>Rack rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Giá phòng công bố chưa có khuyến mại </t>
-  </si>
-  <si>
     <t>Bungalow</t>
   </si>
   <si>
@@ -1122,15 +1083,9 @@
     <t>room</t>
   </si>
   <si>
-    <t>Khách đặt phòng trực tiếp tại quầy lễ tân</t>
-  </si>
-  <si>
     <t>Tờ tóm tắt các yêu cầu của một sự kiện sắp diễn ra, bao gồm các thông tin như tên khách hàng, ngày giờ, chương trình, menu, các yêu cầu dịch vụ khác, liên hệ.</t>
   </si>
   <si>
-    <t>Một đặt phòng đã thanh toán</t>
-  </si>
-  <si>
     <t>Half-round table setup</t>
   </si>
   <si>
@@ -1140,29 +1095,13 @@
     <t>banquet</t>
   </si>
   <si>
-    <t>Kiểu sắp xếp ghế xung quanh 2/3 hoặc 3/4 bàn, tất cả các ghế hướng về tâm điểm sân khấu</t>
-  </si>
-  <si>
-    <t>Hệ thống quản lý thông tin khách hàng và [[lead]]</t>
-  </si>
-  <si>
-    <t>Các công thức tài chính đánh giá chi phí cơ hội khi bán phòng cho [[group]] thay vì [[transient]]</t>
-  </si>
-  <si>
     <t>Du lịch sinh thái</t>
   </si>
   <si>
-    <t>Loại hình du lịch dựa vào thiên nhiên và văn hóa bản địa gắn với giáo dục môi trường, có đóng góp cho nỗ lực bảo tồn và phát triển bền vững với sự tham gia tích cực của cộng đồng địa phương.</t>
-  </si>
-  <si>
     <t>f&amp;b service</t>
   </si>
   <si>
     <t>Family service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Món ăn được để trong một đĩa lớn, phục vụ mang tới cho chủ tiệc xem trước, sau đó chủ tiệc và những người tham gia lần lượt lấy một phần đồ ăn trên đĩa hoặc phục vụ có thể giúp chia đồ ăn lên đĩa cho khách.
-</t>
   </si>
   <si>
     <t>Table service</t>
@@ -1201,33 +1140,15 @@
     <t>Gueridon Service</t>
   </si>
   <si>
-    <t>Món ăn được thực hiện trong bếp nhưng không hoàn thiện, phục vụ thực hiện trình diễn hoàn thiện món ăn trên xe đẩy Gueridon. Thực khách được chiêm ngưỡng tay nghề khéo léo của nhân viên nhà hàng, cảm nhận hương vị và vẻ đẹp của món ăn ngay từ công đoạn hoàn thiện.</t>
-  </si>
-  <si>
     <t>Silver Service</t>
   </si>
   <si>
-    <t xml:space="preserve">Món ăn được trình bày theo khẩu phần trên đĩa hoặc khay bạc, được giữ nóng trên bàn bên cạnh. Khi được yêu cầu, bồi bàn mang tới cho chủ tiệc xem trước, sau khi được chủ tiệc đồng ý, bồi bàn sử dụng muỗng nĩa của thực khách để lấy món ăn trên đĩa lớn vào đĩa khách. Thực khách sử dụng bộ muỗng nĩa cao cấp, thường bằng bạc. Đây là kiểu phục vụ tỏng các nhà hàng cao cấp. </t>
-  </si>
-  <si>
-    <t>Giá phòng không bao gồm bữa ăn</t>
-  </si>
-  <si>
-    <t>Hệ thống nhập liệu giá cả, số lượng sẵn bán, các điều khoản khác lên website của khách sạn</t>
-  </si>
-  <si>
     <t>FAM trip</t>
   </si>
   <si>
     <t>Familizartion Tour; FAM tour</t>
   </si>
   <si>
-    <t xml:space="preserve">Loại hình du lịch có lịch trình được lên kế hoạch chi tiết, người tham dự thường thuộc một tổ chức thương mại tới tham quan để làm quen với địa điểm du lịch, nhằm mục đích kinh doanh mô hình tương tự hoặc tương lai đưa khách tham quan tới. </t>
-  </si>
-  <si>
-    <t>Tập tài liệu khách hàng, bao gồm giấy tờ thanh toán, nhận phòng… và được lưu trữ ở bộ phận [[Tiền sảnh]]</t>
-  </si>
-  <si>
     <t>Khu dịch vụ văn phòng trong khách sạn dành cho khách lưu trú, cho phép khách lưu trú sử dụng máy tính, máy in, hoặc cung cấp không gian đọc sách báo, làm việc yên tĩnh cho khách.</t>
   </si>
   <si>
@@ -1249,46 +1170,16 @@
     <t xml:space="preserve">Phòng có sân trong hoặc ban công hướng ra vườn hoặc mặt nước. </t>
   </si>
   <si>
-    <t>Khách tiềm năng có quan tâm dịch vụ nhưng chưa chính thức đặt hay thanh toán.</t>
-  </si>
-  <si>
-    <t>Kiểu khách lưu trú một vài đêm nhất định để đạt đủ điểm cho chương trình khách hàng thân thiết của một khách sạn.</t>
-  </si>
-  <si>
     <t>Khách không check-in, không liên lạc với bên cung cấp dịch vụ để hủy hay thay đổi [[booking]]</t>
   </si>
   <si>
-    <t>Đại lý du lịch bán phòng hoặc dịch vụ trên Internet</t>
-  </si>
-  <si>
-    <t>Vách ngăn di động được dùng để ngăn một không gian lớn thành các không gian nhỏ hơn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Khách. Thường dùng khi nói về số lượng khách, ví dụ 2 pax = 2 khách. </t>
   </si>
   <si>
-    <t xml:space="preserve">Per Person, Per Night. </t>
-  </si>
-  <si>
-    <t>Per Room, Per Night</t>
-  </si>
-  <si>
     <t>Phòng dành cho 5 khách lưu trú.</t>
   </si>
   <si>
     <t>Revenue Per Available Room</t>
-  </si>
-  <si>
-    <t>Doanh thu trung bình trên phòng sẵn bán. Công thức = Tổng doanh thu/Tổng số phòng sẵn bán.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chỉ số đo lường tương quan [[RevPar]] của một khách sạn với các đối thủ trong [[comp set]]. Công thức = RevPar/RevPar trung bình của đối thủ trong compset. 
-RPI = 1: 
-RPI &gt; 1:
-RPI &lt;1: </t>
-  </si>
-  <si>
-    <t>Chỉ số đo lường mức độ thành công của việc bán diện tích tổ chức sự kiện của một cơ sở tại một thời điểm. Công thức = Tổng diện tích không gian bán ra/Tổng diện tích không gian sẵn có.</t>
   </si>
   <si>
     <t xml:space="preserve">Loại phòng bất kỳ còn trống của một khách sạn. </t>
@@ -1304,13 +1195,7 @@
     <t xml:space="preserve">Very Important Person = Khách quan trọng cần được lưu tâm chăm sóc hơn so với các khách khác. </t>
   </si>
   <si>
-    <t>Phòng có đầy đủ giường ngủ, bếp, khu vực khách, buồng tắm nằm trong một không gian chung, không có vách ngăn (trừ buồng tắm)</t>
-  </si>
-  <si>
     <t>Bồn sục</t>
-  </si>
-  <si>
-    <t>Bồn tắm hoặc hồ bơi nước nóng sử dụng thủy liệu pháp với hệ thống vòi phun nước mạnh nhằm mục đích đem đến trải nghiệm massage thư giãn cho khách lưu trú</t>
   </si>
   <si>
     <t>các amenity được cung cấp trong khách sạn</t>
@@ -1321,6 +1206,208 @@
   </si>
   <si>
     <t>Tại sao mua phòng trực tiếp tại khách sạn cao hơn giá mua qua trung gian?</t>
+  </si>
+  <si>
+    <t>Tại sao khách sạn không tính chi phí thuê mặt bằng vào EBITDAR</t>
+  </si>
+  <si>
+    <t>đọc thêm: gross profit in hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lợi nhuận gộp
+</t>
+  </si>
+  <si>
+    <t>Gross Profit, GP</t>
+  </si>
+  <si>
+    <t>Bài viết liên quan</t>
+  </si>
+  <si>
+    <t>Sub category (dùng cho thuật ngữ liên quan)</t>
+  </si>
+  <si>
+    <t>Lợi nhuận vận hành gộp sau điều chỉnh</t>
+  </si>
+  <si>
+    <t>Adjusted Gross 
+Operating Profit, ADOP</t>
+  </si>
+  <si>
+    <t>Buffet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các vật dụng được cung cấp trong phòng khách sạn, phục vụ cho sinh hoạt cá nhân của khách hàng, nhằm mục đích gia tăng mức độ tiện lợi và cảm giác thoải mái cho khách hàng. Chi phí amenity là chi phí biến đổi (variable cost) nằm trong chi phí vận hành hàng ngày của khách sạn.
+</t>
+  </si>
+  <si>
+    <t>Khách hàng thoải mái thưởng thức tất cả các món ăn được bày sẵn.</t>
+  </si>
+  <si>
+    <t>house use</t>
+  </si>
+  <si>
+    <t>điều hành tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đại lý du lịch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOS
+</t>
+  </si>
+  <si>
+    <t>comp set</t>
+  </si>
+  <si>
+    <t>ARI là tỷ lệ [[ADR]] của một khách sạn so với [[ADR]] trung bình của nhóm khách sạn trong [[comp set]] trong cùng một giai đoạn.
+ARI = ADR của khách sạn/ ADR trung bình của nhóm đối thủ trong [[comp set]
+ARI = 1: giá bán trung bình của khách sạn tương đồng giá bán trung bình của đối thủ
+ARI &gt; 1: giá bán trung bình của khách sạn cao hơn giá bán trung bình của đối thủ
+ARI &lt; 1: giá bán trung bình của khách sạn thấp hơn giá bán trung bình của đối thủ
+Khách sạn cân đối giữa [[Occupancy]] và ARI để quyết định thay đổi giá bán nhằm tăng thêm doanh thu và tăng khả năng cạnh tranh.</t>
+  </si>
+  <si>
+    <t>Average Rate per Guest, Giá phòng trung bình trên khách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG
+</t>
+  </si>
+  <si>
+    <t>Giá mỗi khách lưu trú thực trả cho phòng được đặt. Khách sạn đảm bảo chênh lệch giữa ARG và [[ADR]] là nhỏ cho cùng một loại phòng.
+ARG = Tổng doanh thu phòng bán/Tổng số khách lưu trú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR
+</t>
+  </si>
+  <si>
+    <t>Các bộ phận không trực tiếp tiếp xúc với khách hàng như Kế toán, Nhân sự, Sales &amp; Marketing, IT.</t>
+  </si>
+  <si>
+    <t>Giá tốt nhất sẵn có hay giá niêm yết của một khách sạn.</t>
+  </si>
+  <si>
+    <t>Loại bàn dùng trong [[cabaret setup]].</t>
+  </si>
+  <si>
+    <t>Giá bao gồm phòng và bữa sáng.</t>
+  </si>
+  <si>
+    <t>Du lịch công vụ</t>
+  </si>
+  <si>
+    <t>Bleisure, Bizcation</t>
+  </si>
+  <si>
+    <t>Boutique không thuộc phân loại khách sạn chính thống nên không có tiêu chuẩn rõ ràng. Tuy nhiên, boutique có những tiêu chuẩn ngầm hiểu bao gồm số phòng nhỏ hơn 100, là [[independent hotel]] hoặc thuộc một boutique [[chain hotel]], thiết kế độc đáo và khác biệt với bất cứ một khách sạn nào khác, tập trung cao vào trải nghiệm của khách lưu trú.</t>
+  </si>
+  <si>
+    <t>Loại phòng một tầng, mái hiên rộng.</t>
+  </si>
+  <si>
+    <t>Capsule hotel</t>
+  </si>
+  <si>
+    <t>Pod hotel, Khách sạn con nhộng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại hình cung cấp dịch vụ ăn uống tới địa điểm bên ngoài, thường phục vụ cho các tiệc nhiều người. </t>
+  </si>
+  <si>
+    <t>Hệ thống đặt phòng trung tâm quản lý tất cả [[BKG]] từ tất cả các kênh bán hàng.</t>
+  </si>
+  <si>
+    <t>Khách sạn chuỗi</t>
+  </si>
+  <si>
+    <t>Các dịch vụ/vật dụng miễn phí cho khách. Các dịch vụ/vật dụng miễn phí tiêu biểu có wifi, nước lọc (giới hạn số lượng trên khách mỗi đêm ở), dọn phòng, nâng cấp hạng phòng (thường áp dụng cho khách trung thành hoặc khách quan trọng), trà túi lọc, cà phê gói... 
+Mặc dù đều có nghĩa "miễn phí" đối với khách hàng, khách sạn thường dùng từ "complimentary" thay cho "free" bởi vì "complimentary" nghĩa rằng khách sạn cần bỏ nhiều nỗ lực vào sản phẩm hay dịch vụ đó hơn, thể hiện ý chí làm hài lòng khách của khách sạn. Dù vậy, tất cả các dịch vụ/vật dụng "complimentary" đều đã được thầm lặng tính vào giá phòng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại phòng có cửa thông qua một phòng khác. Cửa này có khóa ở 2 bên của 2 phòng. Áp dụng cho các khách gia đình, tăng độ tiện nghi về di chuyển giữa 2 phòng và tạo trải nghiệm kết nối cho các khách ở 2 phòng khác nhau. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại hình kinh doanh các dịch vụ lưu trú, ăn uống, giải trí trên một du thuyền chạy trên biển từ vài ngày cho đến cả một năm. </t>
+  </si>
+  <si>
+    <t>Phòng tiện nghi cho người khuyết tật, Disabled room, Accessible room</t>
+  </si>
+  <si>
+    <t>Handicaped room</t>
+  </si>
+  <si>
+    <t>Loại phòng được thiết kế dễ dàng cho người khuyết tật di chuyển và sử dụng. Các thiết kế nắm cửa, kích thước lối ra vào, tay vịn, mặt sàn phẳng là các yếu tố tạo nên sự khác biệt giữa loại phòng này và phòng thường.</t>
+  </si>
+  <si>
+    <t>Related term</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Average Daily Rate, Giá phòng trung bình trên ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADR
+</t>
+  </si>
+  <si>
+    <t>Average Bed Rate, Giá giường trung bình</t>
+  </si>
+  <si>
+    <t>Average Length of Stay</t>
+  </si>
+  <si>
+    <t>ALOS là số ngày trung bình một khách lưu trú tại một khách sạn. ALOS được tính trong một quãng thời gian nhất định. ALOS có ý nghĩa trong việc đánh giá tệp khách hàng để thiết kế sản phẩm và giá bán phù hợp. ALOS phụ thuộc lớn vào địa điểm. 
+ALOS = Tổng số đêm bán ra trong một giai đoạn/Tổng số booking</t>
+  </si>
+  <si>
+    <t>ARR là giá phòng trung bình, tương đối giống với [[ADR]]. ADR đo lường giá bán theo ngày, còn ARR có thể dùng để đo lường giá bán cho một giai đoạn như tuần, tháng, năm.
+ARR = Tổng doanh thu phòng bán/Tổng số đêm phòng bán</t>
+  </si>
+  <si>
+    <t>Khoảng thời gian từ khi khách [[booking]] đến khi khách check in</t>
+  </si>
+  <si>
+    <t>Một hoặc nhiều nhân sự chăm sóc tại phòng cho khách bên cạnh các dịch vụ khác sẵn có của khách sạn. Quản gia có thể sắp xếp lịch trình vui chơi trong khách sạn cho khách, thay khách yêu cầu dịch vụ.</t>
+  </si>
+  <si>
+    <t>Các khoản chi tiêu vào các hạng mục sản phẩm hay dịch vụ phục vụ trên một năm cho vận hành công ty, như bất động sản, xây dựng, thiết bị, phương tiện.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại khách sạn thuộc chuỗi các khách sạn được sở hữu và điều hành bởi một công ty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết tắt của competitive set, là tập hợp 4-10 đối thủ trực tiếp của một khách sạn. Comp set được dùng để so sánh mức độ hiệu quả một khách sạn hoạt động so với đối thủ của nó. </t>
+  </si>
+  <si>
+    <t>Bộ phận giải đáp hoặc hỗ trợ trực tiếp các yêu cầu liên quan đến trải nghiệm, thông tin du lịch tại khu vực, phương tiện vận chuyển… Concierge có thể thuộc [[Front Office]] hoặc không.</t>
+  </si>
+  <si>
+    <t>Condotel = condo (condominium) + tel (hotel). Về cơ bản, condotel vận hành như một khách sạn thông thường. Tuy nhiên, về tính sở hữu, khách sạn là tài sản của một đơn vị kinh doanh có tính pháp lý, trong khi đó khách sạn căn hộ là tài sản của nhiều cá nhân khác nhau. Các cá nhân sở hữu căn hộ condotel ký thỏa thuận cho một đơn vị kinh doanh thuê lại căn hộ để kinh doanh như một khách sạn trong một thời gian cố định.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bữa sáng Continental bao gồm bánh nướng, trái cây, ngũ cốc, và cà phê, thường được phục vụ theo hình thức buffet, khá tương tự bữa sáng truyền thống ở một số khu vực châu Âu như Pháp hay Địa Trung Hải. Bữa sáng Continental nhẹ nhàng hơn [[American Breakfast]]. </t>
+  </si>
+  <si>
+    <t>Kiểu sắp xếp ghế xung quanh một nửa bàn, nửa bàn còn lại để trống, tất cả các ghế đều hướng về sân khấu chính.</t>
+  </si>
+  <si>
+    <t>Kiểu sắp xếp ghế xung quanh 2/3 hoặc 3/4 bàn, tất cả các ghế hướng về sân khấu chính.</t>
+  </si>
+  <si>
+    <t>Hệ thống quản lý thông tin khách hàng và [[lead]].</t>
+  </si>
+  <si>
+    <t>Phòng bán cho khách sử dụng trong ngày, thường là 12 tiếng.</t>
+  </si>
+  <si>
+    <t>Dịch vụ chỉnh phòng, Dịch vụ dọn phòng buổi tối</t>
+  </si>
+  <si>
+    <t>Các công thức tài chính đánh giá chi phí cơ hội khi bán phòng cho [[group]] thay vì [[transient]].</t>
   </si>
   <si>
     <r>
@@ -1342,7 +1429,7 @@
         <rFont val="Tw Cen MT"/>
         <family val="2"/>
       </rPr>
-      <t>Tổng chi phí ở đây không bao gồm lãi suất, thuế, khấu hao tài sản, chi phí mặt bằng
+      <t>Tổng chi phí ở đây không bao gồm lãi suất, thuế, khấu hao tài sản, chi phí mặt bằng.
 EBITDAR = Doanh thu - Chi phí</t>
     </r>
     <r>
@@ -1367,228 +1454,781 @@
     </r>
   </si>
   <si>
-    <t>Tại sao khách sạn không tính chi phí thuê mặt bằng vào EBITDAR</t>
-  </si>
-  <si>
-    <t>đọc thêm: gross profit in hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lợi nhuận gộp
+    <t xml:space="preserve">Món ăn được để trên một đĩa lớn, phục vụ mang tới cho chủ tiệc xem trước, sau đó chủ tiệc và những người tham gia lần lượt lấy một phần đồ ăn trên đĩa hoặc phục vụ có thể giúp chia đồ ăn lên đĩa cho khách.
 </t>
   </si>
   <si>
-    <t>Gross Profit, GP</t>
-  </si>
-  <si>
-    <t>Về mặt kế toán, GP trong ngành dịch vụ cũng tương tự như GP trong các ngành khác. Điều quan trọng cần xác định những hạng mục trong Chi phí sản xuất hay cung cấp dịch vụ để tối ưu hóa doanh thu - chi phí. Chi phí cung cấp dịch vụ đêm phòng nghỉ có thể bao gồm chi phí nhân công dọn phòng, chi phí amenity. Chi phí cung cấp dịch vụ nhà hàng có thể bao gồm chi phí nguyên vật liệu sản xuất món ăn, chi phí nhân công thực hiện món ăn, chi phí nhân sự phục vụ món ăn. 
+    <t xml:space="preserve">Giờ đến dự kiến. Thường được áp dụng trong check in khách sạn. Khách sạn thu thập ETA của khách hàng để sắp xếp phòng và dọn phòng cho khách, cũng như chuẩn bị các thủ tục check in khác. ETA đặc biệt quan trọng khi check in khách đoàn. </t>
+  </si>
+  <si>
+    <t>Giờ khởi hành dự kiến. Thường được áp dụng trong check out khách sạn. Khách sạn thu thập ETD của khách hàng để sắp xếp dọn phòng hiệu quả, cũng như chuẩn bị các thủ tục check out khách. ETD đặc biệt quan trọng khi check out khách [[VIP]].</t>
+  </si>
+  <si>
+    <t>Giá phòng không bao gồm bữa ăn.</t>
+  </si>
+  <si>
+    <t>Giường phụ là loại giường di động, có kích thước vừa một người nằm, nhỏ hơn giường [[single bed room]], có phụ phí hoặc không. Giường phụ được kê thêm khi có yêu cầu của khách, ngày thường được lưu kho do bộ phận [[Housekeeping]] quản lý. Đây là dịch vụ gia tăng trong phòng khách sạn nhằm tối ưu hóa doanh thu phòng, tăng mức độ hài lòng cho khách khi đảm bảo chỗ ngủ cho các thành viên với chi phí thấp hơn. Thường được các khách gia đình có con nhỏ sử dụng.</t>
+  </si>
+  <si>
+    <t>Hệ thống nhập liệu giá cả, số lượng sẵn bán, các điều khoản khác lên website của khách sạn.</t>
+  </si>
+  <si>
+    <t>Loại hình du lịch có lịch trình được lên kế hoạch chi tiết, người tham dự thường thuộc một tổ chức thương mại tới tham quan để làm quen với địa điểm du lịch, nhằm mục đích kinh doanh mô hình tương tự hoặc tổ chức đưa khách tham quan tới trong tương lai.</t>
+  </si>
+  <si>
+    <t>Flagship hotel là khách sạn tiêu biểu của một thương hiệu hoặc một công ty. Các yếu tố làm nên một flagship hotel có thể kể tới địa điểm đặc biệt, mức đầu tư lớn, dịch vụ tiên phong, quy mô, thiết kế độc đáo, công nghệ tân tiến. Flagship có ý nghĩa định vị thương hiệu mạnh mẽ, những cải tiến của một địa điểm flagship có thể được nhân rộng về sau.</t>
+  </si>
+  <si>
+    <t>Các dịch vụ gia tăng miễn phí, gần giống [[complimentary]]. Tuy nhiên, [[complimentary] thường được sử dụng cho [[amenity]], FOC được sử dụng rộng hơn cho các dịch vụ nói chung, ví dụ các khách sạn áp dụng chính sách khách dưới 2 hoặc 4 tuổi được lưu trú FOC. FOC được sử dụng nhằm tăng mức độ hấp dẫn cho một gói hàng khách mua, hoặc đền bù cho khách hàng (ví dụ: khách sạn có thể tặng đêm phòng FOC cho khách), hoặc áp dụng cho các chương trình khách hàng thân thiết...</t>
+  </si>
+  <si>
+    <t>Tập tài liệu khách hàng, bao gồm giấy tờ thanh toán, nhận phòng…, được lưu trữ ở bộ phận [[Tiền sảnh]]</t>
+  </si>
+  <si>
+    <t>Dịch vụ cung cấp các thức uống không giới hạn, thường được áp dụng cho [[buffet]] (free flow nước uống không cồn), tại các quầy rượu cho một số đồ uống nhất định với một mức giá cố định.</t>
+  </si>
+  <si>
+    <t>Các nhân sự tiếp xúc trực tiếp với khách hàng như nhân viên [[Tiền sảnh]], Nhà hàng, Bảo vệ, Spa, [[Housekeeping]].</t>
+  </si>
+  <si>
+    <t>Dịch vụ trọn gói bao gồm đêm phòng, 3 bữa ăn/ngày, các dịch vụ khác tùy theo thiết kế gói của khách sạn hoặc đại lý du lịch</t>
+  </si>
+  <si>
+    <t>Goverment contract</t>
+  </si>
+  <si>
+    <t>Món ăn được thực hiện trong bếp nhưng chưa hoàn thiện, phục vụ thực hiện trình diễn hoàn thiện món ăn trên xe đẩy Gueridon. Thực khách được chiêm ngưỡng tay nghề khéo léo của nhân viên nhà hàng, cảm nhận hương vị và vẻ đẹp của món ăn ngay từ khi chế biến.</t>
+  </si>
+  <si>
+    <t>Dịch vụ bao gồm đêm phòng, 2 bữa ăn/ngày, bữa ăn còn lại khách tự do chọn lựa và tự chi trả, các dịch vụ khác tùy theo thiết kế gói của khách sạn hoặc đại lý du lịch.</t>
+  </si>
+  <si>
+    <t>Bồn tắm hoặc hồ bơi nước nóng sử dụng thủy liệu pháp với hệ thống vòi phun nước mạnh nhằm mục đích đem đến trải nghiệm massage thư giãn cho khách lưu trú.</t>
+  </si>
+  <si>
+    <t>Khách quan tâm mua sản phẩm hoặc dịch vụ nhưng chưa chính thức đặt hay thanh toán.</t>
+  </si>
+  <si>
+    <t>Về mặt kế toán, lợi nhuận gộp ngành dịch vụ cũng tương tự như các ngành khác. Điều quan trọng là cần xác định những hạng mục trong chi phí sản xuất/cung cấp dịch vụ để tối ưu hóa doanh thu - chi phí. Chi phí cung cấp dịch vụ đêm phòng nghỉ có thể bao gồm chi phí nhân công dọn phòng, chi phí amenity. Chi phí cung cấp dịch vụ nhà hàng có thể bao gồm chi phí nguyên vật liệu sản xuất món ăn, chi phí nhân công thực hiện món ăn, chi phí nhân sự phục vụ món ăn. 
 Lợi nhuận gộp = Doanh thu - Chi phí sản xuất</t>
   </si>
   <si>
-    <t>Bài viết liên quan</t>
-  </si>
-  <si>
-    <t>Sub category (dùng cho thuật ngữ liên quan)</t>
-  </si>
-  <si>
-    <t>Lợi nhuận vận hành gộp sau điều chỉnh</t>
-  </si>
-  <si>
-    <t>Adjusted Gross 
-Operating Profit, ADOP</t>
-  </si>
-  <si>
-    <t>Lợi nhuận vận hành gộp sau điều chỉnh = Lợi nhuận vận hành gộp (GOP) - Chi phí trả công ty quản lý (hotel base management fees)</t>
-  </si>
-  <si>
-    <t>Buffet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Các vật dụng được cung cấp trong phòng khách sạn, phục vụ cho sinh hoạt cá nhân của khách hàng, nhằm mục đích gia tăng mức độ tiện lợi và cảm giác thoải mái cho khách hàng. Chi phí amenity là chi phí biến đổi (variable cost) nằm trong chi phí vận hành hàng ngày của khách sạn.
+    <t>Lợi nhuận vận hành gộp sau điều chỉnh = [[Lợi nhuận vận hành gộp]] (GOP) - Chi phí trả công ty quản lý (hotel base management fees)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoảng thời gian khi số phòng hoặc số bàn hoặc khả năng cung cấp dịch vụ thường được đặt ít, còn rất nhiều [[tồn kho]]. Mùa thấp điểm tùy thuộc vào thời tiết. </t>
+  </si>
+  <si>
+    <t>Là thẻ nhân viên hành lý trao cho khách khi khách gửi hành lý tại quầy tiền sảnh, có 2 phần thông tin giống nhau, 1 phần đính trên hành lý khách, một phần khách giữ để xác nhận hành lý về sau. Thường được các khách chờ check in hoặc đã check out và đang chờ trung chuyển sử dụng.</t>
+  </si>
+  <si>
+    <t>Kiểu khách lưu trú một vài đêm nhất định nhằm đạt đủ điểm cho chương trình khách hàng thân thiết của một khách sạn.</t>
+  </si>
+  <si>
+    <t>Tủ nhỏ chứa các đồ uống và thức ăn nhẹ trong phòng khách, nhằm mục đích phục vụ nhu cầu ăn uống ngẫu nhiên của khách và tăng doanh thu cho khách sạn.</t>
+  </si>
+  <si>
+    <t>Tỷ lệ số đêm phòng, số bàn được bán ra trong một thời điểm (ngày, tháng, năm).</t>
+  </si>
+  <si>
+    <t>Các khoản chi tiêu vào các hạng mục sản phẩm/dịch vụ phục vụ dưới một năm cho vận hành công ty, như chi phí nhân công, lương thưởng, chi phí điện nước…</t>
+  </si>
+  <si>
+    <t>danh sách opex</t>
+  </si>
+  <si>
+    <t>Đại lý du lịch bán phòng hoặc dịch vụ du lịch trên Internet.</t>
+  </si>
+  <si>
+    <t>Báo cáo tài chính gồm doanh thu, chi phí, lợi nhuận của một cơ sở kinh doanh trong một khoảng thời gian nhất định. 
+Có 2 loại P&amp;L: hợp nhất (consolidated) và bộ phận (department). P&amp;L hợp nhất bao gồm doanh thu, chi phí, lợi nhuận của tất cả bộ phận. P&amp;L bộ phận chỉ gồm doanh thu, chi phí, lợi nhuận của bộ phận đó.</t>
+  </si>
+  <si>
+    <t>Vách ngăn di động dùng để ngăn một không gian lớn thành các không gian nhỏ hơn.</t>
+  </si>
+  <si>
+    <t>Hệ thống quản lý khách lưu trú, hỗ trợ thông tin cho vận hành hàng ngày của các bộ phận trong khách sạn. PMS có thể được kết nối với POS hay CRS.</t>
+  </si>
+  <si>
+    <t>Giá phòng công bố chưa có khuyến mại.</t>
+  </si>
+  <si>
+    <t>Doanh thu trung bình trên phòng sẵn bán. 
+RevPar = Tổng doanh thu/Tổng số phòng sẵn bán.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ số đo lường tương quan [[RevPar]] của một khách sạn với các đối thủ trong [[comp set]].
+RPI = RevPar/RevPar trung bình của đối thủ trong compset. 
+RPI = 1: 
+RPI &gt; 1:
+RPI &lt;1: </t>
+  </si>
+  <si>
+    <t>Chỉ số đo lường mức độ thành công của việc bán diện tích tổ chức sự kiện của một cơ sở tại một thời điểm. 
+REVPAS = Tổng diện tích không gian bán ra/Tổng diện tích không gian sẵn có.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công việc xếp phòng cho các [[booking]] chuẩn bị check in hoặc thay đổi phòng cho các khách đang lưu trú tại khách sạn. </t>
+  </si>
+  <si>
+    <t>Vị trí thực hiện nhiệm vụ [[room assignment]], thường được đảm nhiệm bởi bộ phận Lễ tân. Thuật ngữ này phổ biến ở các khách sạn lớn nơi có số lượng [[booking]] lớn cần xử lý.</t>
+  </si>
+  <si>
+    <t>Bộ phận chăm sóc khách hàng đang lưu trú tại khách sạn thông qua nhận các cuộc gọi yêu cầu dịch vụ của khách 24/24, sau đó truyền đạt thông tin của khách đến bộ phận liên quan nhằm đảm bảo trải nghiệm của khách  trong thời gian lưu trú. . Service Centre thường phổ biến ở các khách sạn lớn vì bộ phận Lễ tân không có đủ thời gian xử lý tất cả yêu cầu của khách.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Món ăn được trình bày theo khẩu phần trên đĩa hoặc khay bạc, được giữ nóng trên bàn bên cạnh. Khi được yêu cầu, bồi bàn mang tới cho chủ tiệc xem trước, sau khi được chủ tiệc đồng ý, bồi bàn sử dụng muỗng nĩa của thực khách để lấy món ăn trên đĩa lớn vào đĩa khách. Thực khách sử dụng bộ muỗng nĩa cao cấp, thường bằng bạc. Đây là kiểu phục vụ trong các nhà hàng cao cấp. </t>
+  </si>
+  <si>
+    <t>Phòng một giường với kích thước chiều ngang chưa đầy 1 mét dành cho một khách, phổ biến ở các mô hình lưu trú [[dormitory]], phù hợp cho các cá nhân đi du lịch một mình hoặc nhóm bạn đi du lịch cùng nhau.</t>
+  </si>
+  <si>
+    <t>Phòng một giường với kích thước chiều ngang khoảng 1.4 mét hoặc 1.5 mét (loại queen bed) dành cho 2 khách. Thường là hạng phòng phổ biến nhất của một khách sạn. Phù hợp với cặp đôi, gia đình, hoặc khách đi một mình nhưng yêu thích sự thoải mái.</t>
+  </si>
+  <si>
+    <t>Phòng có đầy đủ giường ngủ, bếp, khu vực khách, buồng tắm nằm trong một không gian chung, không có vách ngăn (trừ buồng tắm).</t>
+  </si>
+  <si>
+    <t>Loại phòng gồm 1 phòng ngủ nối liền 1 phòng khách, 2 phòng vệ sinh (1 trong phòng ngủ và 1 trong phòng khách), và một hoặc nhiều ban công hướng đẹp nhất. Đây là hạng phòng cao cấp nhất (nếu không có [[phòng Tổng thống]]) và thường ở tầng cao nhất với các trang thiết bị và dịch vụ đặc biệt kèm theo.</t>
+  </si>
+  <si>
+    <t>Hạng phòng cao cấp hơn [[standard double bed room]], có thể có giường lớn hơn (giường king), hoặc hướng phòng đẹp hơn, hoặc diện tích phòng lớn hơn.</t>
+  </si>
+  <si>
+    <t>Deposit là khoản tiền khách được yêu cầu đặt cọc khi check in nhằm bảo đảm chi trả chi phí [[incidental]] của khách trong thời gian lưu trú. Deposit thường rơi vào từ 1 – 2 triệu/đêm, khách có thể đặt cọc bằng tiền mặt hoặc thẻ ngân hàng.</t>
+  </si>
+  <si>
+    <t>Khách lưu trú ngắn ngày.</t>
+  </si>
+  <si>
+    <t>Phòng cho 3 người ở, có 3 giường đơn hoặc 1 giường đôi và 1 giường đơn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dịch vụ nhân viên [[housekeeping]] sắp xếp lại các vật dụng phòng khách đang lưu trú từ khoảng 5h chiều đến 9h tối khi khách đi vắng. Nhân viên thực hiện gấp đồ; chuẩn bị giường cho khách đi ngủ, chỉnh vị trí vật dụng về như ban đầu, và thay [[amenity]] loại một lần mà khách đã dùng. Phổ biến ở các khách sạn lớn, thường là miễn phí. </t>
+  </si>
+  <si>
+    <t>Phòng 2 giường với kích thước mỗi giường tương tự [[single bed room]], dành cho 2 khách. Phù hợp với nhóm bạn, gia đình.</t>
+  </si>
+  <si>
+    <t>Dịch vụ báo thức sáng cho khách bằng việc gọi điện thoại lên phòng khách hoặc cử nhân viên lên trực tiếp phòng khách nếu khách không nghe điện thoại. Tùy vào độ lớn nhỏ của từng khách sạn mà dịch vụ này được thực hiện bởi [[Service Centre]] hoặc [[Lễ tân]]. Thường được các khách có chuyến bay sớm sử dụng, đặc biệt khách tổ đội bay, khách trưởng đoàn.</t>
+  </si>
+  <si>
+    <t>Khách đặt phòng trực tiếp tại quầy lễ tân.</t>
+  </si>
+  <si>
+    <t>Earnings before interest-
+taxes-depreciation- amortisation-and rent</t>
+  </si>
+  <si>
+    <t>Một đặt phòng đã thanh toán.</t>
+  </si>
+  <si>
+    <t>Lợi nhuận vận hành gộp</t>
+  </si>
+  <si>
+    <t>House Use</t>
+  </si>
+  <si>
+    <t>Số lượng phòng sẵn bán nhất định dành riêng cho các kênh bán hàng bên ngoài như [[OTA]], [[đại lý du lịch]], [[điều hành tour]].</t>
+  </si>
+  <si>
+    <t>Back of house</t>
+  </si>
+  <si>
+    <t>Front of house</t>
+  </si>
+  <si>
+    <t>Briefing</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrival
 </t>
   </si>
   <si>
-    <t>Khách hàng thoải mái thưởng thức tất cả các món ăn được bày sẵn.</t>
-  </si>
-  <si>
-    <t>Số lượng phòng sẵn bán nhất định dành cho các kênh bán hàng bên ngoài như [[OTA]], [[đại lý du lịch]], [[điều hành tour]].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Bed Rate
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Due out</t>
+  </si>
+  <si>
+    <t>DND</t>
+  </si>
+  <si>
+    <t>Do Not Disturb</t>
+  </si>
+  <si>
+    <t>Biển không làm phiền khách treo ngoài cửa.</t>
+  </si>
+  <si>
+    <t>Front Office</t>
+  </si>
+  <si>
+    <t>Tiền sảnh</t>
+  </si>
+  <si>
+    <t>Bộ phận đặt ở sảnh chính khách sạn, cung cấp các dịch vụ lễ tân.</t>
+  </si>
+  <si>
+    <t>GITs</t>
+  </si>
+  <si>
+    <t>Group Inclusive Tours</t>
+  </si>
+  <si>
+    <t>IDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDD = International direct dialing. Nếu một khách sạn cung cấp điện thoại trong phòng khách có tính năng IDD, khách có thể tự thực hiện cuộc gọi quốc tế mà không cần đến sự trợ giúp khác. </t>
+  </si>
+  <si>
+    <t>In house</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>Bộ phận chịu trách nhiệm đảm bảo phòng ốc và các khu vực công cộng khác trong khách sạn sạch sẽ, cung cấp dịch vụ [[amenity]] cho khách hàng.</t>
+  </si>
+  <si>
+    <t>Lost &amp; found</t>
+  </si>
+  <si>
+    <t>Nơi lưu giữ các đồ vật khách để quên. Trong khách sạn, [[Front Office]] và [[Housekeeping]] đều có thể có Lost &amp; found.</t>
+  </si>
+  <si>
+    <t>OOO</t>
+  </si>
+  <si>
+    <t>OOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viết tắt của Out of Service, nghĩa là sản phẩm/dịch vụ không đủ tiêu chuẩn để sử dụng, có thể do hỏng hóc hoặc đang sữa chữa. </t>
+  </si>
+  <si>
+    <t>Paid out</t>
+  </si>
+  <si>
+    <t>Chi phí phát sinh của khách đã được khách sạn chi trả.</t>
+  </si>
+  <si>
+    <t>Viết tắt của Out of Order, nghĩa là sản phẩm/dịch vụ không sẵn bán. OOO được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t>Khách đang lưu trú tại khách sạn. In house được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t>OnQ</t>
+  </si>
+  <si>
+    <t>[[PMS]] được sử dụng trong chuỗi các khách sạn Hilton.</t>
+  </si>
+  <si>
+    <t>Khoảng thời gian khách làm thủ tục trả phòng. Departure được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t>Khách lưu trú đến ngày trả phòng. Due out được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t>Khoảng thời gian khách làm thủ tục nhận phòng. Arrival còn chỉ khách có [[booking]] chuẩn bị check in trong ngày hôm đó, được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t>Occupied clean</t>
+  </si>
+  <si>
+    <t>Occupied dirty</t>
+  </si>
+  <si>
+    <t>Phòng sạch sẽ đang có khách lưu trú.</t>
+  </si>
+  <si>
+    <t>Phòng đang có khách lưu trú trong trạng thái cần [[Housekeeping]] lau dọn.</t>
+  </si>
+  <si>
+    <t>Due in</t>
+  </si>
+  <si>
+    <t>room status</t>
+  </si>
+  <si>
+    <t>Khách có [[booking]] chưa check in sau giờ quy định check in. Due in được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t>Room move</t>
+  </si>
+  <si>
+    <t>Khách được chuyển sang phòng khác trong khách sạn. Room move được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t>Skipper</t>
+  </si>
+  <si>
+    <t>Khách lưu trú rời khỏi khách sạn mà không thực hiện thủ tục trả phòng.</t>
+  </si>
+  <si>
+    <t>Vacant clean</t>
+  </si>
+  <si>
+    <t>Vacant dirty</t>
+  </si>
+  <si>
+    <t>Phòng trống sạch sẽ sẵn sàng cho khách check in. Vacant clean được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t>Phòng trống cần lau dọn. Vacant dirty được sử dụng phổ biến trên [[PMS]] của khách sạn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A la carte
 </t>
   </si>
   <si>
-    <t>ABR, Giá giường trung bình</t>
-  </si>
-  <si>
-    <t>Song song chỉ số [[ARR]], ABR được sử dụng để đánh giá khả năng tối ưu doanh thu trên giường thay vì trên phòng. Chỉ số này thường được các cơ sở kinh doanh loại phòng nhiều giường ngủ sử dụng.
+    <t>Backdrop</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>Sự kiện</t>
+  </si>
+  <si>
+    <t>Barista</t>
+  </si>
+  <si>
+    <t>Bartender</t>
+  </si>
+  <si>
+    <t>Nhân viên pha chế thức uống không cồn.</t>
+  </si>
+  <si>
+    <t>Nhân viên pha chế thức uống có cồn.</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>check in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách sạn
+</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
+    <t>Set menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set menu là thực đơn cố định kết hợp đủ 3 món khai vị, món chính, tráng miệng, có thể có nước uống và các món ăn kèm. Khách hàng không lựa chọn món đơn lẻ như [[a la carte]] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách ngồi tại bàn gọi món và phục vụ mang món tới bàn cho khách, khách thường thanh toán cuối bữa ăn. </t>
+  </si>
+  <si>
+    <t>Loại hình công viên giải trí có kiến trúc xây dựng, cảnh vật, trò chơi xoay quanh một chủ đề.</t>
+  </si>
+  <si>
+    <t>Point of Sale</t>
+  </si>
+  <si>
+    <t>Viết tắt của Point of Sale, là hệ thống thực hiện và lưu giữ các giao dịch mua bán với khách hàng và có thể kết thuế. Giao dịch POS có thể trực tiếp tại địa điểm hoặc online. Hóa đơn có thể ở dạng giấy in hay điện tử.</t>
+  </si>
+  <si>
+    <t>Viết tắt của Per Person, Per Night. Chỉ số lượng hoặc giá cho mỗi khách trên đêm phòng.</t>
+  </si>
+  <si>
+    <t>Viết tắt của Per Room, Per Night. Chỉ số lượng hoặc giá cho mỗi phòng trên đêm phòng.</t>
+  </si>
+  <si>
+    <t>Lifestyle hotel khuông</t>
+  </si>
+  <si>
+    <t>Khách đặt món lẻ tùy ý trong menu, trái với [[set menu]].</t>
+  </si>
+  <si>
+    <t>Cuộc họp ngắn đầu ngày hoặc đầu ca tóm tắt các thông tin quan trọng trong ngày.</t>
+  </si>
+  <si>
+    <t>Viết tắt của Average Bed Rate, là chỉ số tài chính đo lường giá giường trung bình. 
+Song song [[ARR]], ABR được dùng để đánh giá khả năng tối ưu doanh thu theo giường thay vì trên phòng. 
+ARR được các cơ sở kinh doanh loại phòng nhiều giường ngủ sử dụng.
 ABR = Tổng doanh thu phòng bán/Tổng số giường của phòng bán</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Daily Rate
-</t>
-  </si>
-  <si>
-    <t>ADR, Giá phòng trung bình trên ngày</t>
-  </si>
-  <si>
-    <t>ADR là một trong những chỉ số tài chính phổ biến nhất trong vận hành khách sạn. ADR đo lường và so sánh giá cả khách hàng sẵn sàng trả giữa các khách sạn cùng cấp độ với nhau về quy mô, tập khách hàng, địa điểm.
-Các phòng miễn phí như [[House Use]] và [[Complimentary room]] không được tính vào ADR
+    <t>Viết tắt của Average Daily Rate, là chỉ số tài chính đo lường giá phòng trung bình trên ngày.  ADR giúp so sánh giá cả khách hàng sẵn sàng trả giữa các khách sạn cùng cấp độ với nhau về quy mô, tập khách hàng, địa điểm.
+Phòng [[House Use]] và [[Complimentary]] không được tính vào ADR.
+ADR là một trong những chỉ số tài chính phổ biến nhất trong vận hành khách sạn.
 ADR = Tổng doanh thu phòng bán trong ngày/Tổng phòng bán trong ngày</t>
   </si>
   <si>
-    <t>house use</t>
-  </si>
-  <si>
-    <t>complimentary room</t>
-  </si>
-  <si>
-    <t>điều hành tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đại lý du lịch </t>
-  </si>
-  <si>
-    <t>Thời gian lưu trú trung bình, Average Length of Stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALOS
-</t>
-  </si>
-  <si>
-    <t>ALOS là số ngày một khách lưu trú trung bình tại một khách sạn, được tính trong một quãng thời gian nhất định. ALOS có ý nghĩa trong việc đánh giá tệp khách hàng để thiết kế sản phẩm và giá bán phù hợp.
-ALOS phụ thuộc lớn vào địa điểm. 
-ALOS = Tổng số đêm bán ra trong một giai đoạn/Tổng số booking</t>
-  </si>
-  <si>
-    <t>comp set</t>
-  </si>
-  <si>
-    <t>ARI là tỷ lệ [[ADR]] của một khách sạn so với [[ADR]] trung bình của nhóm khách sạn trong [[comp set]] trong cùng một giai đoạn.
-ARI = ADR của khách sạn/ ADR trung bình của nhóm đối thủ trong [[comp set]
-ARI = 1: giá bán trung bình của khách sạn tương đồng giá bán trung bình của đối thủ
-ARI &gt; 1: giá bán trung bình của khách sạn cao hơn giá bán trung bình của đối thủ
-ARI &lt; 1: giá bán trung bình của khách sạn thấp hơn giá bán trung bình của đối thủ
-Khách sạn cân đối giữa [[Occupancy]] và ARI để quyết định thay đổi giá bán nhằm tăng thêm doanh thu và tăng khả năng cạnh tranh.</t>
-  </si>
-  <si>
-    <t>Average Rate per Guest, Giá phòng trung bình trên khách</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG
-</t>
-  </si>
-  <si>
-    <t>Giá mỗi khách lưu trú thực trả cho phòng được đặt. Khách sạn đảm bảo chênh lệch giữa ARG và [[ADR]] là nhỏ cho cùng một loại phòng.
-ARG = Tổng doanh thu phòng bán/Tổng số khách lưu trú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARR
-</t>
-  </si>
-  <si>
-    <t>ARR là giá phòng trung bình, tương đối giống với [[ADR]]. ADR đo lường giá bán theo ngày, còn ARR có thể dùng để đo lường giá bán cho một giai đoạn như tuần, tháng, năm.
-ARR = Tổng doanh thu phòng bán/Tổng số phòng bán</t>
-  </si>
-  <si>
-    <t>Các bộ phận không trực tiếp tiếp xúc với khách hàng như Kế toán, Nhân sự, Sales &amp; Marketing, IT.</t>
-  </si>
-  <si>
-    <t>Giá tốt nhất sẵn có hay giá niêm yết của một khách sạn.</t>
-  </si>
-  <si>
-    <t>Loại bàn dùng trong [[cabaret setup]].</t>
-  </si>
-  <si>
-    <t>Giá bao gồm phòng và bữa sáng.</t>
-  </si>
-  <si>
-    <t>Du lịch công vụ</t>
-  </si>
-  <si>
-    <t>Bleisure, Bizcation</t>
-  </si>
-  <si>
-    <t>Boutique không thuộc phân loại khách sạn chính thống nên không có tiêu chuẩn rõ ràng. Tuy nhiên, boutique có những tiêu chuẩn ngầm hiểu bao gồm số phòng nhỏ hơn 100, là [[independent hotel]] hoặc thuộc một boutique [[chain hotel]], thiết kế độc đáo và khác biệt với bất cứ một khách sạn nào khác, tập trung cao vào trải nghiệm của khách lưu trú.</t>
-  </si>
-  <si>
-    <t>Loại phòng một tầng, mái hiên rộng.</t>
-  </si>
-  <si>
-    <t>Một hoặc nhiều nhân sự chăm sóc tại phòng cho khách bên cạnh các dịch vụ khác sẵn có của khách sạn. Quản gia có thể sắp xếp lịch trình vui chơi trong khách sạn cho khách, thay khách thực yêu cầu dịch vụ.</t>
-  </si>
-  <si>
-    <t>Kiểu sắp xếp ghế xung quanh một nửa bàn, nửa bàn còn lại để trống, tất cả các ghế đều hướng về tâm điểm sân khấu</t>
-  </si>
-  <si>
-    <t>Apartment hotel aparthotel</t>
-  </si>
-  <si>
-    <t>Capsule hotel</t>
-  </si>
-  <si>
-    <t>Pod hotel, Khách sạn con nhộng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loại hình lưu trú cung cấp các buồng ngủ nhỏ vừa đủ một người nằm trong một không gian chung và sử dụng phòng tắm chung, có thể có bữa sáng. Thường được xây dựng ở các thành phố có diện tích xây dựng hạn chế và thu hút các khách du lịch trẻ tuổi, thích tự do và khám phá. Singapore là đất nước phổ biến loại hình khách sạn này. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loại hình cung cấp dịch vụ ăn uống tới địa điểm bên ngoài, thường phục vụ cho các tiệc nhiều người. </t>
-  </si>
-  <si>
-    <t>Hệ thống đặt phòng trung tâm quản lý tất cả [[BKG]] từ tất cả các kênh bán hàng.</t>
-  </si>
-  <si>
-    <t>Khách sạn chuỗi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loại khách sạn thuộc chuỗi các khách sạn sở hữu và điều hành bởi một công ty. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viết tắt của competitive set, là tập hợp 5-10 đối thủ trực tiếp của một khách sạn. Comp set được dùng để so sánh mức độ hoạt động hiệu quả của một khách sạn so với đối thủ của nó. </t>
-  </si>
-  <si>
-    <t>Các dịch vụ/vật dụng miễn phí cho khách. Các dịch vụ/vật dụng miễn phí tiêu biểu có wifi, nước lọc (giới hạn số lượng trên khách mỗi đêm ở), dọn phòng, nâng cấp hạng phòng (thường áp dụng cho khách trung thành hoặc khách quan trọng), trà túi lọc, cà phê gói... 
-Mặc dù đều có nghĩa "miễn phí" đối với khách hàng, khách sạn thường dùng từ "complimentary" thay cho "free" bởi vì "complimentary" nghĩa rằng khách sạn cần bỏ nhiều nỗ lực vào sản phẩm hay dịch vụ đó hơn, thể hiện ý chí làm hài lòng khách của khách sạn. Dù vậy, tất cả các dịch vụ/vật dụng "complimentary" đều đã được thầm lặng tính vào giá phòng.</t>
-  </si>
-  <si>
-    <t>Bộ phận giải đáp hoặc hỗ trợ trực tiếp các yêu cầu trải nghiệm tại khách sạn cho khách lưu trú. Các yeu cầu trải nghiệm thường liên quan đến thông tin du lịch tại khu vực, phương tiện vận chuyển… Concierge có thể thuộc [[Front Office]] hoặc không.</t>
-  </si>
-  <si>
-    <t>Condotel = condo (condominium) và tel (hotel). Về cơ bản, condotel vận hành như một khách sạn thông thường. Tuy nhiên, về tính sở hữu, khách sạn là tài sản của một đơn vị kinh doanh có tính pháp lý, trong khi đó khách sạn căn hộ là tài sản của nhiều cá nhân khác nhau. Các cá nhân sở hữu căn hộ condotel ký thỏa thuận cho một đơn vị kinh doanh thuê lại căn hộ để kinh doanh như một khách sạn trong một thời gian cố định.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loại phòng có cửa thông qua một phòng khác. Cửa này có khóa ở 2 bên của 2 phòng. Áp dụng cho các khách gia đình, tăng độ tiện nghi về di chuyển giữa 2 phòng và tạo trải nghiệm kết nối cho các khách ở 2 phòng khác nhau. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loại bữa sáng nhẹ nhàng hơn [[American Breakfast]]. Bữa sáng continental bao gồm bánh nướng, trái cây, ngũ cốc, và cà phê, thường được phục vụ theo hình thức buffet, khá tương tự bữa sáng truyền thống ở một số khu vực châu Âu như Pháp hay Địa Trung Hải. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loại hình kinh doanh các dịch vụ lưu trú, ăn uống, giải trí trên một du thuyền chạy trên biển từ vài ngày cho đến cả một năm. </t>
-  </si>
-  <si>
-    <t>Chỉ loại phòng bán cho khách sử dụng trong ngày, thường là 12 tiếng.</t>
-  </si>
-  <si>
-    <t>Phòng tiện nghi cho người khuyết tật, Disabled room, Accessible room</t>
-  </si>
-  <si>
-    <t>Handicaped room</t>
-  </si>
-  <si>
-    <t>Loại phòng được thiết kế dễ dàng cho người khuyết tật di chuyển và sử dụng. Các thiết kế nắm cửa, kích thước lối ra vào, tay vịn, mặt sàn phẳng là các yếu tố tạo nên sự khác biệt giữa loại phòng này và phòng thường.</t>
-  </si>
-  <si>
-    <t>Related term</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t xml:space="preserve">tàu thủy lưu trú du lịch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lữ hành </t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bãi cắm trại du lịch </t>
+  </si>
+  <si>
+    <t>Điều 48. Các loại cơ sở lưu trú du lịch</t>
+  </si>
+  <si>
+    <t>1. Khách sạn.</t>
+  </si>
+  <si>
+    <t>2. Biệt thự du lịch.</t>
+  </si>
+  <si>
+    <t>3. Căn hộ du lịch.</t>
+  </si>
+  <si>
+    <t>4. Tàu thủy lưu trú du lịch.</t>
+  </si>
+  <si>
+    <t>5. Nhà nghỉ du lịch.</t>
+  </si>
+  <si>
+    <t>6. Nhà ở có phòng cho khách du lịch thuê.</t>
+  </si>
+  <si>
+    <t>7. Bãi cắm trại du lịch.</t>
+  </si>
+  <si>
+    <t>8. Các cơ sở lưu trú du lịch khác.</t>
+  </si>
+  <si>
+    <t>so sánh điểm khác nhau về định nghĩa hotel giữa luật các nước và việt nam</t>
+  </si>
+  <si>
+    <t>Cơ sở lưu trú du lịch</t>
+  </si>
+  <si>
+    <t>Khách sạn thành phố</t>
+  </si>
+  <si>
+    <t>City hotel</t>
+  </si>
+  <si>
+    <t>Khách sạn nghỉ dưỡng</t>
+  </si>
+  <si>
+    <t>Resort, Hotel resort</t>
+  </si>
+  <si>
+    <t>Khách sạn nổi</t>
+  </si>
+  <si>
+    <t>Floating hotel</t>
+  </si>
+  <si>
+    <t>Khách sạn bên đường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motel </t>
+  </si>
+  <si>
+    <t>Làng du lịch</t>
+  </si>
+  <si>
+    <t>Tourist village</t>
+  </si>
+  <si>
+    <t>Bên cạnh đảm bảo các yêu cầu của một [[khách sạn]] theo luật Du lịch Việt Nam, "khách sạn nghỉ dưỡng là [[cơ sở lưu trú du lịch]] được xây dựng thành khối hoặc thành quần thể các biệt thự, nhà thấp tầng, căn hộ, ở khu vực có cảnh quan thiên nhiên đẹp."[[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]
+Loại hình lưu trú được xây dựng trên một khu đất rộng, thường đi kèm với thắng cảnh tự nhiên như biển; núi; rừng; thác; suối, có đa dạng các hoạt động vui chơi giải trí, các dịch vụ mà một địa điểm có thể cung cấp cho khách hàng.</t>
+  </si>
+  <si>
+    <t>Bên cạnh đảm bảo các yêu cầu của một [[khách sạn]] theo luật Du lịch Việt Nam, "khách sạn bên đường là [[cơ sở lưu trú du lịch]] gần đường giao thông, có bãi đỗ xe nhằm phục vụ nhu cầu lưu trú của khách sử dụng phương tiện giao thông đường bộ (xe máy, ô tô) đi du lịch hoặc nghỉ ngơi giữa những chặng đường dài." [[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]
+Loại khách sạn cạnh các con đường lớn, quốc lộ, cao tốc phục vụ các hành khách lái xe đường dài, quá cảnh một đêm. Vì tính chất lưu trú tạm thời của khách, motel thường chỉ cung cấp các dịch vụ cơ bản như phòng nghỉ, bữa sáng, chỗ đỗ xe. Số lượng khách nhỏ và thời gian lưu trú ngắn nên motel thường được xây ít tầng với số lượng phòng nhỏ.</t>
+  </si>
+  <si>
+    <t>Bên cạnh đảm bảo các yêu cầu của một [[khách sạn]] theo luật Du lịch Việt Nam, "khách sạn nổi là [[cơ sở lưu trú du lịch]] neo đậu trên mặt nước và có thể di chuyển khi cần thiết." [[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>Biệt thự du lịch</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Căn hộ du lịch</t>
+  </si>
+  <si>
+    <t>Apartment hotel, Aparthotel, Căn hộ dịch vụ</t>
+  </si>
+  <si>
+    <t>Tàu thủy lưu trú du lịch</t>
+  </si>
+  <si>
+    <t>Nhà nghỉ du lịch</t>
+  </si>
+  <si>
+    <t>Nhà ở có phòng cho khách du lịch thuê</t>
+  </si>
+  <si>
+    <t>"Khu vực được quy hoạch ở nơi có cảnh quan thiên nhiên đẹp, có kết cấu hạ tầng, có cơ sở vật chất và dịch vụ cần thiết phục vụ khách cắm trại, điều kiện tối thiểu về cơ sở vật chất kỹ thuật, dịch vụ như sau:
+1. Có khu vực đón tiếp khách, khu vực dựng lều, trại, đỗ xe, phòng tắm, vệ sinh chung.
+2. Có nước sạch.
+3. Có dụng cụ, trang thiết bị dựng lều trại; có tủ thuốc cấp cứu ban đầu.
+4. Có nhân viên bảo vệ trực khi có khách.
+5. Có nhân viên trực 24 giờ mỗi ngày."[[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>Khu du lịch cấp tỉnh</t>
+  </si>
+  <si>
+    <t>Khu du lịch cấp quốc gia</t>
+  </si>
+  <si>
+    <t>Điểm du lịch</t>
+  </si>
+  <si>
+    <t>"Các hoạt động có liên quan đến chuyến đi của con người ngoài nơi cư trú thường xuyên của mình nhằm đáp ứng nhu cầu tham quan, tìm hiểu, giải trí, nghỉ dưỡng trong một khoảng thời gian nhất định." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Khách du lịch</t>
+  </si>
+  <si>
+    <t>"Người đi du lịch hoặc kết hợp đi du lịch, trừ trường hợp đi học, làm việc hoặc hành nghề để nhận thu nhập ở nơi đến." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"Hoạt động của [[khách du lịch]], tổ chức, cá nhân kinh doanh [[du lịch]], cộng đồng dân cư và cơ quan, tổ chức, cá nhân có liên quan đến [[du lịch]]." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Hoạt động du lịch</t>
+  </si>
+  <si>
+    <t>du lịch</t>
+  </si>
+  <si>
+    <t>Tài nguyên du lịch</t>
+  </si>
+  <si>
+    <t>"Cảnh quan thiên nhiên, yếu tố tự nhiên, di tích lịch sử - văn hoá, công trình lao động sáng tạo của con người và các giá trị nhân văn khác có thể được sử dụng nhằm đáp ứng nhu cầu du lịch, là yếu tố cơ bản để hình thành các khu du lịch, điểm du lịch, tuyến du lịch, đô thị du lịch." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"Đô thị có lợi thế phát triển du lịch và du lịch có vai trò quan trọng trong hoạt động của đô thị." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Đô thị du lịch</t>
+  </si>
+  <si>
+    <t>Khu du lịch</t>
+  </si>
+  <si>
+    <t>"Lộ trình liên kết các khu du lịch, điểm du lịch, cơ sở cung cấp dịch vụ du lịch, gắn với các tuyến giao thông đường bộ, đường sắt, đường thuỷ, đường hàng không." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Tuyến du lịch</t>
+  </si>
+  <si>
+    <t>Sản phẩm du lịch</t>
+  </si>
+  <si>
+    <t>Dịch vụ du lịch</t>
+  </si>
+  <si>
+    <t>"Cơ sở cho thuê buồng, giường và cung cấp các dịch vụ khác phục vụ khách lưu trú, trong đó khách sạn là cơ sở lưu trú du lịch chủ yếu." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Chương trình du lịch</t>
+  </si>
+  <si>
+    <t>Lữ hành</t>
+  </si>
+  <si>
+    <t>"Hoạt động tuyên truyền, quảng bá, vận động nhằm tìm kiếm, thúc đẩy cơ hội phát triển du lịch." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Xúc tiến du lịch</t>
+  </si>
+  <si>
+    <t>"Hình thức du lịch dựa vào thiên nhiên, gắn với bản sắc văn hoá địa phương với sự tham gia của cộng đồng nhằm phát triển bền vững." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Du lịch văn hóa</t>
+  </si>
+  <si>
+    <t>"Hình thức du lịch dựa vào bản sắc văn hoá dân tộc với sự tham gia của cộng đồng nhằm bảo tồn và phát huy các giá trị văn hoá truyền thống."[[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"Môi trường tự nhiên và môi trường xã hội nhân văn nơi diễn ra các hoạt động du lịch." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Môi trường du lịch</t>
+  </si>
+  <si>
+    <t>Du lịch bền vững</t>
+  </si>
+  <si>
+    <t>"Sự phát triển du lịch đáp ứng được các nhu cầu hiện tại mà không làm tổn hại đến khả năng đáp ứng nhu cầu về du lịch của tương lai." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"Các yếu tố địa chất, địa hình, địa mạo, khí hậu, thuỷ văn, hệ sinh thái, cảnh quan thiên nhiên có thể được sử dụng phục vụ mục đích du lịch." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Tài nguyên du lịch tự nhiên</t>
+  </si>
+  <si>
+    <t>"Truyền thống văn hóa, các yếu tố văn hoá, văn nghệ dân gian, di tích lịch sử, cách mạng, khảo cổ, kiến trúc, các công trình lao động sáng tạo của con người và các di sản văn hoá vật thể, phi vật thể khác có thể được sử dụng phục vụ mục đích du lịch." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>Tài nguyên du lịch nhân văn</t>
+  </si>
+  <si>
+    <t>Phương tiện chuyên vận chuyển khách du lịch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhóm [[khách du lịch]] mua cùng một gói du lịch có lịch trình giống nhau. Gói này bao gồm đêm nghỉ, ăn uống, các chuyến đi chơi, phương tiện di chuyển. </t>
+  </si>
+  <si>
+    <t>"[[Cơ sở lưu trú du lịch]] bảo đảm chất lượng về cơ sở vật chất, trang thiết bị và dịch vụ cần thiết phục vụ [[khách du lịch]]; bao gồm: [[khách sạn nghỉ dưỡng]], [[khách sạn bên đường]], [[khách sạn nổi]] và [[khách sạn thành phố]], có điều kiện tối thiểu về cơ sở vật chất kỹ thuật, dịch vụ như sau:
+1. Hệ thống điện, hệ thống cấp nước sạch và thoát nước.
+2. Tối thiểu 10 buồng ngủ; có quầy lễ tân, phòng vệ sinh chung.
+3. Nơi để xe cho khách đối với [[khách sạn nghỉ dưỡng]] và [[khách sạn bên đường]].
+4. Bếp, phòng ăn và dịch vụ phục vụ ăn uống đối với [[khách sạn nghỉ dưỡng]], [[khách sạn nổi]], [[khách sạn bên đường]].
+5. Giường, đệm, chăn, gối, khăn mặt, khăn tắm; thay bọc đệm, bọc chăn, bọc gối, khăn mặt, khăn tắm khi có khách mới.
+6. Nhân viên trực 24 giờ mỗi ngày.
+7. Người quản lý, nhân viên được tập huấn về nghiệp vụ du lịch." [[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>Bên cạnh đảm bảo các yêu cầu của một [[khách sạn]] theo luật Du lịch Việt Nam, "khách sạn thành phố là [[cơ sở lưu trú du lịch]] được xây dựng tại các đô thị phục vụ [[khách du lịch]]."[[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>"Nơi có tài nguyên du lịch hấp dẫn với ưu thế về tài nguyên du lịch tự nhiên, được quy hoạch, đầu tư phát triển nhằm đáp ứng nhu cầu đa dạng của [[khách du lịch]], đem lại hiệu quả về kinh tế - xã hội và môi trường." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"1. Có ít nhất 02 tài nguyên du lịch, trong đó có tài nguyên du lịch cấp quốc gia; có ranh giới xác định trên bản đồ địa hình do cơ quan có thẩm quyền xác nhận. Tỷ lệ bản đồ phụ thuộc vào yêu cầu quản lý và địa hình khu vực.
+2. Có trong danh mục các khu vực tiềm năng phát triển khu du lịch quốc gia được Thủ tướng Chính phủ phê duyệt.
+3. Có kết cấu hạ tầng, cơ sở vật chất kỹ thuật, dịch vụ chất lượng cao, đồng bộ, đáp ứng nhu cầu lưu trú, ăn uống và các nhu cầu khác của [[khách du lịch]], bao gồm:
+a) Có cơ sở kinh doanh dịch vụ ăn uống, mua sắm, thể thao, vui chơi, giải trí, chăm sóc sức khỏe đạt tiêu chuẩn phục vụ [[khách du lịch]], đáp ứng tối thiểu 500.000 lượt khách mỗi năm; hệ thống cơ sở lưu trú du lịch đáp ứng tối thiểu 300.000 lượt khách lưu trú mỗi năm, trong đó có cơ sở lưu trú du lịch được công nhận hạng từ 4 sao trở lên;
+b) Các điều kiện quy định tại các điểm a, c, và d khoản 2 Điều 12 Nghị định này.
+4. Có kết nối với hệ thống hạ tầng giao thông, viễn thông quốc gia.
+5. Đáp ứng điều kiện về an ninh, trật tự, an toàn xã hội, bảo vệ môi trường, bao gồm:
+a) Có hệ thống thu gom và xử lý rác thải, nước thải tập trung theo quy định của pháp luật về bảo vệ môi trường; bố trí nhân lực làm vệ sinh môi trường;
+b) Có bộ phận bảo vệ, cứu hộ, cứu nạn;
+c) Công khai số điện thoại, địa chỉ của tổ chức quản lý khu du lịch;
+d) Có bộ phận thông tin hỗ trợ [[khách du lịch]]; có hình thức tiếp nhận và giải quyết kịp thời phản ánh, kiến nghị của [[khách du lịch]];
+đ) Nhà vệ sinh công cộng sạch sẽ, được thông gió và đủ ánh sáng, được bố trí đủ, tương ứng với số lượng [[khách du lịch]] vào thời kỳ cao điểm;
+e) Có hệ thống thu gom và biện pháp xử lý rác thải; có hệ thống thu gom, xử lý nước thải sinh hoạt hoặc hệ thống thu gom nước thải sinh hoạt liên thông với hệ thống xử lý nước thải tập trung theo quy định của pháp luật về bảo vệ môi trường; bố trí nhân lực làm vệ sinh môi trường;
+f) Áp dụng các biện pháp phòng, chống cháy nổ theo quy định của pháp luật." [[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>"1. Có ít nhất 01 tài nguyên du lịch cấp tỉnh; có ranh giới xác định trên bản đồ địa hình do cơ quan có thẩm quyền xác nhận. Tỷ lệ bản đồ phụ thuộc vào yêu cầu quản lý và địa hình khu vực.
+2. Có kết cấu hạ tầng, cơ sở vật chất kỹ thuật, dịch vụ đáp ứng nhu cầu lưu trú, ăn uống và các nhu cầu khác của [[khách du lịch]], bao gồm:
+a) Có hệ thống điện lưới, hệ thống cung cấp nước sạch;
+b) Có cơ sở kinh doanh dịch vụ ăn uống, mua sắm đạt tiêu chuẩn phục vụ [[khách du lịch]], đáp ứng tối thiểu 100.000 lượt khách mỗi năm; hệ thống cơ sở lưu trú du lịch đáp ứng tối thiểu 50.000 lượt khách lưu trú mỗi năm;
+c) Có nội quy, hệ thống biển chỉ dẫn, thuyết minh về khu du lịch; có hệ thống biển chỉ dẫn, biển báo về giao thông, các cơ sở dịch vụ, các điểm tham quan;
+d) Cung cấp dịch vụ thuyết minh, hướng dẫn du lịch.
+3. Có kết nối với hệ thống hạ tầng giao thông, viễn thông quốc gia.
+4. Đáp ứng điều kiện về an ninh, trật tự, an toàn xã hội, bảo vệ môi trường, bao gồm:
+a) Có bộ phận bảo vệ, cứu hộ, cứu nạn;
+b) Công khai số điện thoại, địa chỉ của tổ chức quản lý khu du lịch;
+c) Có bộ phận thông tin hỗ trợ [[khách du lịch]]; có hình thức tiếp nhận và giải quyết kịp thời phản ánh, kiến nghị của [[khách du lịch]];
+d) Nhà vệ sinh công cộng sạch sẽ, được thông gió và đủ ánh sáng, được bố trí đủ, tương ứng với số lượng [[khách du lịch]] vào thời kỳ cao điểm;
+đ) Có hệ thống thu gom và biện pháp xử lý rác thải; có hệ thống thu gom, xử lý nước thải sinh hoạt hoặc hệ thống thu gom nước thải sinh hoạt liên thông với hệ thống xử lý nước thải tập trung theo quy định của pháp luật về bảo vệ môi trường; bố trí nhân lực làm vệ sinh môi trường;
+e) Áp dụng các biện pháp phòng, chống cháy nổ theo quy định của pháp luật." [[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Làng du lịch là [[cơ sở lưu trú du lịch]] gồm tập hợp các biệt thự hoặc một số loại cơ sở lưu trú khác như căn hộ, băng-ga-lâu (bungalow) và bãi cắm trại, được xây dựng ở nơi có tài nguyên du lịch, cảnh quan thiên nhiên đẹp, có hệ thống dịch vụ gồm các nhà hàng, quầy bar, cửa hàng mua sắm, khu vui chơi giải trí, thể thao và các tiện ích khác phục vụ [[khách du lịch]]." [[Thông tư 88/2008/TT-BVHTTDL]]</t>
+  </si>
+  <si>
+    <t>[[Khách du lịch]] trong nước đi tham quan các nước, vùng lãnh thổ khác.</t>
+  </si>
+  <si>
+    <t>"1. Có tài nguyên du lịch, có ranh giới xác định trên bản đồ địa hình do cơ quan có thẩm quyền xác nhận. Tỷ lệ bản đồ phụ thuộc vào yêu cầu quản lý và địa hình khu vực.
+2. Có kết cấu hạ tầng, dịch vụ cần thiết bảo đảm phục vụ [[khách du lịch]], bao gồm:
+a) Có kết nối giao thông, thông tin liên lạc thuận lợi;
+b) Có điện, nước sạch;
+c) Có biển chỉ dẫn, thuyết minh về điểm du lịch;
+d) Có dịch vụ ăn uống, mua sắm.
+3. Đáp ứng điều kiện về an ninh, trật tự, an toàn xã hội, bảo vệ môi trường, bao gồm:
+a) Có bộ phận bảo vệ trực 24 giờ mỗi ngày;
+b) Công khai số điện thoại, địa chỉ của tổ chức, cá nhân quản lý điểm du lịch;
+c) Có hình thức tiếp nhận và giải quyết kịp thời phản ánh, kiến nghị của [[khách du lịch]];
+d) Nhà vệ sinh công cộng sạch sẽ, được thông gió và đủ ánh sáng, được bố trí đủ, tương ứng với số lượng [[khách du lịch]] vào thời kỳ cao điểm;
+đ) Có biện pháp thu gom và xử lý rác thải, nước thải sinh hoạt theo quy định của pháp luật về bảo vệ môi trường; bố trí nhân lực làm vệ sinh môi trường;
+e) Áp dụng các biện pháp phòng, chống cháy nổ theo quy định của pháp luật" [[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>[[Khách du lịch]] từ các nước và vùng lãnh thổ khác đến thăm quan du lịch đất nước bản địa.</t>
+  </si>
+  <si>
+    <t>"Việc xây dựng, bán và tổ chức thực hiện một phần hoặc toàn bộ [[chương trình du lịch]] cho [[khách du lịch]]." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"[[Cơ sở lưu trú]] có trang thiết bị, tiện nghi cần thiết phục vụ [[khách du lịch]],  điều kiện tối thiểu về cơ sở vật chất kỹ thuật, dịch vụ như sau:
+1. Có điện, nước sạch và hệ thống thoát nước.
+2. Có khu vực đón tiếp khách và phòng ngủ; có phòng tắm, phòng vệ sinh chung trong trường hợp phòng ngủ không có phòng tắm, vệ sinh riêng.
+3. Có giường, đệm, chăn, gối, khăn mặt, khăn tắm; thay bọc đệm, bọc chăn, bọc gối, khăn mặt, khăn tắm khi có khách mới.
+4. Có nhân viên trực 24 giờ mỗi ngày.
+5. Người quản lý, nhân viên được tập huấn về nghiệp vụ du lịch."[[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nhà ở có khu vực được bố trí trang thiết bị, tiện nghi cho [[khách du lịch]] thuê lưu trú; khách cùng sinh hoạt với gia đình chủ nhà, điều kiện tối thiểu về cơ sở vật chất kỹ thuật, dịch vụ như sau:
+1. Có đèn chiếu sáng, nước sạch.
+2. Có khu vực sinh hoạt chung; có khu vực lưu trú cho khách; có bếp, phòng tắm, phòng vệ sinh.
+3. Có giường, đệm hoặc chiếu; có chăn, gối, màn, khăn mặt, khăn tắm; thay bọc đệm hoặc chiếu; thay bọc chăn, bọc gối, khăn mặt, khăn tắm khi có khách mới.
+4. Chủ nhà ở có phòng cho [[khách du lịch]] thuê được tập huấn về nghiệp vụ du lịch."[[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]
+Là loại hình cung cấp đêm nghỉ trong nhà dân địa phương. Dịch vụ homestay cung cấp thường chỉ bao gồm phòng nghỉ, có thể có bữa sáng. Homestay mang đến trải nghiệm văn hóa địa phương, sự thân thiện và giá thành rẻ. Ngày nay, khái niệm homestay được sử dụng qua lại với Airbnb do dịch vụ công ty này cung cấp hướng tới loại hình homestay là chủ yếu. </t>
+  </si>
+  <si>
+    <t>"Phương tiện bảo đảm các điều kiện phục vụ [[khách du lịch]], được sử dụng để vận chuyển "[[khách du lịch]]" theo chương trình du lịch." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"Tập hợp các dịch vụ cần thiết để thoả mãn nhu cầu của [[khách du lịch]] trong chuyến đi du lịch" [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"Phương tiện vận tải thủy có phòng ngủ phục vụ nhu cầu lưu trú của [[khách du lịch]], điều kiện tối thiểu về cơ sở vật chất kỹ thuật, dịch vụ như sau:
+1. Tàu trong tình trạng tốt, còn hạn đăng kiểm; có áo phao, phao cứu sinh, phương tiện thông tin liên lạc, tủ thuốc cấp cứu ban đầu.
+2. Có điện, nước sạch; có thiết bị thu gom rác thải, nước thải bảo đảm vệ sinh môi trường.
+3. Có khu vực đón tiếp khách, phòng ngủ (cabin), phòng tắm, phòng vệ sinh, bếp, phòng ăn và dịch vụ phục vụ ăn uống
+4. Có giường, đệm, chăn, gối, khăn mặt, khăn tắm; thay bọc đệm, bọc chăn, bọc gối, khăn mặt, khăn tắm khi có khách mới
+5. Người quản lý, nhân viên được tập huấn về nghiệp vụ du lịch.
+6. Người quản lý, nhân viên phục vụ được tập huấn về nghiệp vụ du lịch, kỹ năng cứu hộ trên sông, biển."[[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>"Biệt thự có trang thiết bị, tiện nghi cho [[khách du lịch]] thuê và có thể tự phục vụ trong thời gian lưu trú, điều kiện tối thiểu về cơ sở vật chất kỹ thuật, dịch vụ như sau:
+1. Có hệ thống điện, hệ thống cấp nước sạch và thoát nước.
+2. Có giường, đệm, chăn, gối, khăn mặt, khăn tắm; thay bọc đệm, bọc chăn, bọc gối, khăn mặt, khăn tắm khi có khách mới.
+3. Có nhân viên trực 24 giờ mỗi ngày
+4. Có khu vực tiếp khách, phòng ngủ, bếp và phòng tắm, phòng vệ sinh"[[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>"Căn hộ có trang thiết bị, dịch vụ cần thiết phục vụ [[khách du lịch]]. Khách có thể tự phục vụ trong thời gian lưu trú, điều kiện tối thiểu về cơ sở vật chất kỹ thuật, dịch vụ như sau:
+1. Có hệ thống điện, hệ thống cấp nước sạch và thoát nước
+2. Có giường, đệm, chăn, gối, khăn mặt, khăn tắm; thay bọc đệm, bọc chăn, bọc gối, khăn mặt, khăn tắm khi có khách mới.
+3. Có khu vực tiếp khách, phòng ngủ, bếp và phòng tắm, phòng vệ sinh.
+4. Người quản lý căn hộ được tập huấn về nghiệp vụ du lịch." [[@Nghị định số 168/2017/NĐ-CP của Chính phủ]]</t>
+  </si>
+  <si>
+    <t>Loại hình lưu trú cung cấp các buồng ngủ nhỏ vừa đủ một người nằm trong một không gian chung và sử dụng phòng tắm chung, có thể có bữa sáng. Capsule hotel phổ biến ở các thành phố có diện tích xây dựng hạn chế và thu hút các [[khách du lịch]] trẻ tuổi, thích tự do và khám phá.</t>
+  </si>
+  <si>
+    <t>"Lịch trình, các dịch vụ và giá bán chương trình được định trước cho chuyến đi của [[khách du lịch]] từ nơi xuất phát đến điểm kết thúc chuyến đi." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>"Việc cung cấp các dịch vụ về lữ hành, vận chuyển, lưu trú, ăn uống, vui chơi giải trí, thông tin, hướng dẫn và những dịch vụ khác nhằm đáp ứng nhu cầu của [[khách du lịch]]." [[@Luật số 44/2005/QH11 của Quốc hội : Luật du lịch]]</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>https://vinapad.com/khach-san-nhuong-quyen-thuong-hieu.vnp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1620,13 +2260,46 @@
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1664,10 +2337,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,26 +2409,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1765,17 +2421,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1789,6 +2474,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Thuy Phan" id="{7666AFF5-456C-4266-8D15-D7EBBAFC2611}" userId="6ad733614937ff4d" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2086,3022 +2777,4459 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C28" dT="2021-02-25T15:15:07.80" personId="{7666AFF5-456C-4266-8D15-D7EBBAFC2611}" id="{CFEB4919-5812-402E-BE3B-09AA93425359}">
+    <text>lead time = thời gian tối thiểu cho phép cancel booking mà không bị phạt</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD20B6C-BD3E-4D53-8FCA-55DEE4A6A737}">
-  <dimension ref="A1:I147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD20B6C-BD3E-4D53-8FCA-55DEE4A6A737}">
+  <dimension ref="A1:I206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.83984375" customWidth="1"/>
-    <col min="2" max="2" width="16.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.68359375" customWidth="1"/>
-    <col min="4" max="4" width="12.68359375" customWidth="1"/>
-    <col min="5" max="5" width="12.68359375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="81.3125" customWidth="1"/>
-    <col min="7" max="7" width="48.47265625" customWidth="1"/>
-    <col min="8" max="8" width="14.3125" customWidth="1"/>
+    <col min="1" max="1" width="5.83984375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.3125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.68359375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="81.3125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="48.47265625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="14.3125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="8.83984375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" s="33" customFormat="1" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28">
+      <c r="B1" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>238</v>
+      <c r="B2" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>407</v>
+        <v>542</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28">
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>242</v>
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>213</v>
+        <v>544</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28">
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>242</v>
+      <c r="B4" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>411</v>
+        <v>545</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="28">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>251</v>
+      <c r="B5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>410</v>
+        <v>207</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="28">
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>243</v>
+      <c r="B6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="28">
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>251</v>
+      <c r="B7" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>227</v>
+        <v>399</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="28">
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>349</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>344</v>
+        <v>231</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="28">
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>252</v>
+      <c r="B9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="28">
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>252</v>
+      <c r="B10" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="28">
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>247</v>
+      <c r="B11" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="112.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="28">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>425</v>
+      <c r="D12" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>368</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>395</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="28">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>252</v>
+      <c r="B13" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="28">
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>431</v>
+      <c r="B14" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="28">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>432</v>
-      </c>
+      <c r="B15" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="28">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="28">
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>354</v>
+      <c r="B17" s="21" t="s">
+        <v>522</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>356</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28">
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="28">
+      <c r="B18" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>322</v>
-      </c>
+      <c r="B19" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28">
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" s="31" customFormat="1" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>259</v>
-      </c>
+      <c r="B20" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="21"/>
+        <v>318</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="28">
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>254</v>
+      <c r="B21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>214</v>
+        <v>375</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="28">
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>261</v>
-      </c>
+      <c r="B22" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>529</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="28">
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="21"/>
+      <c r="B23" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="28">
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>303</v>
+      </c>
       <c r="D24" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="28">
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C25" s="13"/>
+      <c r="B25" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>245</v>
+      </c>
       <c r="D25" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="G25" s="13"/>
+        <v>524</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25" s="21"/>
       <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="28">
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" ht="112.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="28">
+      <c r="B26" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>245</v>
+      <c r="B27" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="G27" s="13"/>
+        <v>233</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="G27" s="21"/>
       <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="28">
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="28">
+      <c r="B28" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>442</v>
-      </c>
+      <c r="B29" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="28">
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>204</v>
+      <c r="B30" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>543</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="28">
+      <c r="I30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="32">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>443</v>
+        <v>361</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>444</v>
+        <v>48</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="28">
+      <c r="I31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="28">
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>266</v>
+      <c r="B33" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="28">
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>204</v>
+      </c>
       <c r="E34" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="G34" s="21"/>
+        <v>231</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="28">
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="32">
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>448</v>
+        <v>315</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="28">
+      <c r="I35" s="29"/>
+    </row>
+    <row r="36" spans="1:9" ht="112.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="C36" s="13"/>
+      <c r="B36" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>577</v>
+      </c>
       <c r="D36" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>634</v>
+      </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="28">
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="13"/>
+      <c r="B37" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="D37" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>425</v>
+        <v>226</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="98.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="28">
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>255</v>
+      <c r="B38" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>451</v>
+        <v>635</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="28">
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="32">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>452</v>
+        <v>326</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" ht="70.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="28">
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="B40" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="28">
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="G41" s="21"/>
+      <c r="B41" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="28">
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E42" s="14" t="s">
+      <c r="B42" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>455</v>
-      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="28">
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="28">
+      <c r="B43" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="28">
+      <c r="B44" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="28">
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:9" ht="98.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="32">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>274</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="28">
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="32">
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>145</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C47" s="13"/>
       <c r="D47" s="13" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="28">
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>250</v>
+      <c r="B48" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="28">
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="G49" s="13"/>
+      <c r="B49" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" s="21"/>
       <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="28">
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="F50" s="13" t="s">
-        <v>341</v>
+        <v>408</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="28">
+      <c r="I50" s="29"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>280</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>343</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="28">
+      <c r="I51" s="29"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>278</v>
+      <c r="B52" s="21" t="s">
+        <v>253</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>204</v>
+      </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="28">
+      <c r="I52" s="29"/>
+    </row>
+    <row r="53" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14" t="s">
-        <v>238</v>
+      <c r="B53" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="28">
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="13"/>
+        <v>256</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="D54" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="13"/>
+        <v>242</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>411</v>
+      </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="28">
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
-        <v>210</v>
-      </c>
+      <c r="B55" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+        <v>242</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G55" s="21"/>
       <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="28">
+      <c r="I55" s="29"/>
+    </row>
+    <row r="56" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>345</v>
+        <v>145</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="28">
+      <c r="I56" s="29"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>247</v>
+      <c r="B57" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>61</v>
+        <v>412</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="28">
+      <c r="I57" s="29"/>
+    </row>
+    <row r="58" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>64</v>
+      <c r="B58" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>503</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="28">
+      <c r="I58" s="29"/>
+    </row>
+    <row r="59" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="32">
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>248</v>
+        <v>530</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>361</v>
+        <v>460</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" ht="70.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="28">
+      <c r="I59" s="29"/>
+    </row>
+    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="32">
         <v>59</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F60" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="28">
+      <c r="B60" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="37"/>
+    </row>
+    <row r="61" spans="1:9" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="32">
         <v>60</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-    </row>
-    <row r="62" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="28">
+      <c r="B61" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="37"/>
+    </row>
+    <row r="62" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="32">
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>364</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>240</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E62" s="13"/>
       <c r="F62" s="13" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="28">
+      <c r="I62" s="29"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="32">
         <v>62</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>132</v>
+      <c r="B63" s="21" t="s">
+        <v>479</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>142</v>
+        <v>480</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>150</v>
+        <v>204</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="21" t="s">
+        <v>481</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="28">
+      <c r="I63" s="29"/>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="32">
         <v>63</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" ht="112.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="28">
+      <c r="B64" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="37"/>
+    </row>
+    <row r="65" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="32">
         <v>64</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="28">
+      <c r="B65" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="37"/>
+    </row>
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="32">
         <v>65</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="28">
+      <c r="B66" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="37"/>
+    </row>
+    <row r="67" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="32">
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
+        <v>378</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>240</v>
+      </c>
       <c r="F67" s="13" t="s">
-        <v>366</v>
+        <v>208</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="28">
+      <c r="I67" s="29"/>
+    </row>
+    <row r="68" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="32">
         <v>67</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G68" s="21"/>
+      <c r="B68" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="G68" s="13"/>
       <c r="H68" s="13"/>
-    </row>
-    <row r="69" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="28">
+      <c r="I68" s="29"/>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="32">
         <v>68</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="28">
+      <c r="B69" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="37"/>
+    </row>
+    <row r="70" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="32">
         <v>69</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>350</v>
+      <c r="B70" s="21" t="s">
+        <v>510</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>351</v>
+        <v>511</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>512</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="28">
+      <c r="I70" s="29"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="32">
         <v>70</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="13" t="s">
-        <v>216</v>
+      <c r="B71" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>504</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="28">
+      <c r="I71" s="29"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="32">
         <v>71</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>248</v>
-      </c>
+      <c r="B72" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="13" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="28">
+      <c r="I72" s="29"/>
+    </row>
+    <row r="73" spans="1:9" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="32">
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>467</v>
+      </c>
       <c r="D73" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F73" s="13"/>
+        <v>226</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>415</v>
+      </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="28">
+      <c r="I73" s="29"/>
+    </row>
+    <row r="74" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="32">
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>286</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>288</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="28">
+      <c r="I74" s="29"/>
+    </row>
+    <row r="75" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="32">
         <v>74</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>246</v>
+      <c r="B75" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="28">
+      <c r="I75" s="29"/>
+    </row>
+    <row r="76" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="32">
         <v>75</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14" t="s">
-        <v>238</v>
+      <c r="B76" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="28">
+      <c r="I76" s="29"/>
+    </row>
+    <row r="77" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="32">
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C77" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="D77" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="28">
+      <c r="I77" s="29"/>
+    </row>
+    <row r="78" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="32">
         <v>77</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>248</v>
+      <c r="B78" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="28">
+      <c r="I78" s="29"/>
+    </row>
+    <row r="79" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="32">
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13" t="s">
-        <v>210</v>
+        <v>531</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="28">
+      <c r="I79" s="29"/>
+    </row>
+    <row r="80" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="32">
         <v>79</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G80" s="13"/>
+      <c r="B80" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="G80" s="21"/>
       <c r="H80" s="13"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="28">
+      <c r="I80" s="29"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="32">
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="28">
+      <c r="I81" s="29"/>
+    </row>
+    <row r="82" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="32">
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>157</v>
+        <v>422</v>
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="28">
+      <c r="I82" s="29"/>
+    </row>
+    <row r="83" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="32">
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C83" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="D83" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
-    </row>
-    <row r="84" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="28">
+      <c r="I83" s="29"/>
+    </row>
+    <row r="84" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="32">
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F84" s="13"/>
+        <v>227</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="28">
+      <c r="I84" s="29"/>
+    </row>
+    <row r="85" spans="1:9" ht="112.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="32">
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="D85" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F85" s="13"/>
+        <v>203</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
-    </row>
-    <row r="86" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="28">
+      <c r="I85" s="29"/>
+    </row>
+    <row r="86" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="32">
         <v>85</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="29"/>
+    </row>
+    <row r="87" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="32">
+        <v>86</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="29"/>
+    </row>
+    <row r="88" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="32">
+        <v>87</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="H88" s="27"/>
+      <c r="I88" s="29"/>
+    </row>
+    <row r="89" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="32">
+        <v>88</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="29"/>
+    </row>
+    <row r="90" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="32">
+        <v>89</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="29"/>
+    </row>
+    <row r="91" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="32">
+        <v>90</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="29"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="32">
+        <v>91</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="29"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="32">
+        <v>92</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="29"/>
+    </row>
+    <row r="94" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="32">
+        <v>93</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="29"/>
+    </row>
+    <row r="95" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="32">
+        <v>94</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="29"/>
+    </row>
+    <row r="96" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="32">
+        <v>95</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="29"/>
+    </row>
+    <row r="97" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="32">
+        <v>96</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+    </row>
+    <row r="98" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="32">
+        <v>97</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="29"/>
+    </row>
+    <row r="99" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="32">
+        <v>98</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="29"/>
+    </row>
+    <row r="100" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="32">
+        <v>99</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="29"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="32">
+        <v>100</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="29"/>
+    </row>
+    <row r="102" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="32">
+        <v>101</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="29"/>
+    </row>
+    <row r="103" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="32">
+        <v>102</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F103" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="32">
+        <v>103</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="29"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="32">
+        <v>104</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="29"/>
+    </row>
+    <row r="106" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="32">
+        <v>105</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="29"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="32">
+        <v>106</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="29"/>
+    </row>
+    <row r="108" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="32">
+        <v>107</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+    </row>
+    <row r="109" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="32">
+        <v>108</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="32">
+        <v>109</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="32">
+        <v>110</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="29"/>
+    </row>
+    <row r="112" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="32">
+        <v>111</v>
+      </c>
+      <c r="B112" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="29"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="32">
+        <v>112</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C113" s="27"/>
+      <c r="D113" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+    </row>
+    <row r="114" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="32">
+        <v>113</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="29"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="32">
+        <v>114</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" s="27"/>
+      <c r="D115" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="32">
+        <v>115</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+    </row>
+    <row r="117" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="32">
+        <v>116</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+    </row>
+    <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="32">
+        <v>117</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+    </row>
+    <row r="119" spans="1:9" ht="267.89999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="32">
+        <v>118</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E119" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+    </row>
+    <row r="120" spans="1:9" ht="112.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="32">
+        <v>119</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="29"/>
+    </row>
+    <row r="121" spans="1:9" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="32">
+        <v>120</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="29"/>
+    </row>
+    <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="32">
+        <v>121</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+    </row>
+    <row r="123" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="32">
+        <v>122</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="29"/>
+    </row>
+    <row r="124" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="32">
+        <v>123</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E124" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F124" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+    </row>
+    <row r="125" spans="1:9" ht="388.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="32">
+        <v>124</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E125" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F125" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+    </row>
+    <row r="126" spans="1:9" ht="345.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="32">
+        <v>125</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E126" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F126" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="32">
+        <v>126</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+    </row>
+    <row r="128" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="32">
+        <v>127</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="D128" s="37"/>
+      <c r="F128" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="32">
+        <v>128</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+    </row>
+    <row r="130" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="32">
+        <v>129</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="29"/>
+    </row>
+    <row r="131" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="32">
+        <v>130</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="29"/>
+    </row>
+    <row r="132" spans="1:9" ht="84.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="32">
+        <v>131</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="29"/>
+    </row>
+    <row r="133" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="32">
+        <v>132</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C133" s="29"/>
+      <c r="D133" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+    </row>
+    <row r="134" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="32">
+        <v>133</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="29"/>
+    </row>
+    <row r="135" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="32">
+        <v>134</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+    </row>
+    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="32">
+        <v>135</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E136" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F136" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
+    </row>
+    <row r="137" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="32">
+        <v>136</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="29"/>
+    </row>
+    <row r="138" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="32">
+        <v>137</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+    </row>
+    <row r="139" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="32">
+        <v>138</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G139" s="26"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="29"/>
+    </row>
+    <row r="140" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="32">
+        <v>139</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="29"/>
+    </row>
+    <row r="141" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="32">
+        <v>140</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C141" s="29"/>
+      <c r="D141" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+    </row>
+    <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="32">
+        <v>141</v>
+      </c>
+      <c r="B142" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E142" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F142" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="G142" s="37"/>
+      <c r="H142" s="37"/>
+      <c r="I142" s="37"/>
+    </row>
+    <row r="143" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="32">
+        <v>142</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="29"/>
+    </row>
+    <row r="144" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="32">
+        <v>143</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="29"/>
+    </row>
+    <row r="145" spans="1:9" ht="141" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="32">
+        <v>144</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F145" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="29"/>
+    </row>
+    <row r="146" spans="1:9" ht="169.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="32">
+        <v>145</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="29"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="32">
+        <v>146</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E147" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="32">
+        <v>147</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D148" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="29"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="32">
+        <v>148</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="32">
+        <v>149</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="32">
+        <v>150</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+    </row>
+    <row r="152" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="32">
+        <v>151</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
+    </row>
+    <row r="153" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="32">
+        <v>152</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="F153" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+    </row>
+    <row r="154" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="32">
+        <v>153</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="29"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="32">
+        <v>154</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="32">
+        <v>155</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E156" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F156" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="29"/>
+    </row>
+    <row r="157" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="32">
+        <v>156</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D157" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E157" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F157" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="29"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="32">
+        <v>157</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="32">
+        <v>158</v>
+      </c>
+      <c r="B159" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="32">
+        <v>159</v>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+    </row>
+    <row r="161" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="32">
+        <v>160</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E161" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="F161" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="G161" s="40"/>
+      <c r="H161" s="40"/>
+      <c r="I161" s="37"/>
+    </row>
+    <row r="162" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="32">
+        <v>161</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C162" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E162" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="29"/>
+    </row>
+    <row r="163" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="32">
+        <v>162</v>
+      </c>
+      <c r="B163" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E163" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F163" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="G163" s="26"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="29"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="32">
+        <v>163</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E164" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="32">
+        <v>164</v>
+      </c>
+      <c r="B165" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E165" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F165" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
+      <c r="I165" s="29"/>
+    </row>
+    <row r="166" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="32">
+        <v>165</v>
+      </c>
+      <c r="B166" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="29"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="32">
+        <v>166</v>
+      </c>
+      <c r="B167" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E167" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F167" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="29"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="32">
+        <v>167</v>
+      </c>
+      <c r="B168" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E168" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F168" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
+      <c r="I168" s="29"/>
+    </row>
+    <row r="169" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="32">
+        <v>168</v>
+      </c>
+      <c r="B169" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13" t="s">
+      <c r="C169" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D169" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E169" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F169" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
+      <c r="I169" s="29"/>
+    </row>
+    <row r="170" spans="1:9" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="32">
+        <v>169</v>
+      </c>
+      <c r="B170" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="28">
+      <c r="C170" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E170" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F170" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+    </row>
+    <row r="171" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="32">
+        <v>170</v>
+      </c>
+      <c r="B171" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D171" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="E171" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F171" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="32">
+        <v>171</v>
+      </c>
+      <c r="B172" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E172" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F172" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
+      <c r="I172" s="29"/>
+    </row>
+    <row r="173" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="32">
+        <v>172</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F173" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="29"/>
+    </row>
+    <row r="174" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="32">
+        <v>173</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E174" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F174" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="29"/>
+    </row>
+    <row r="175" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="32">
+        <v>174</v>
+      </c>
+      <c r="B175" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E175" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F175" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29"/>
+      <c r="I175" s="29"/>
+    </row>
+    <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="32">
+        <v>175</v>
+      </c>
+      <c r="B176" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="C176" s="37"/>
+      <c r="D176" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E176" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F176" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="G176" s="37"/>
+      <c r="H176" s="37"/>
+      <c r="I176" s="37"/>
+    </row>
+    <row r="177" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="32">
+        <v>176</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D177" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E177" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F177" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="29"/>
+    </row>
+    <row r="178" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="32">
+        <v>177</v>
+      </c>
+      <c r="B178" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E178" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F178" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G178" s="29"/>
+      <c r="H178" s="29"/>
+      <c r="I178" s="29"/>
+    </row>
+    <row r="179" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="32">
+        <v>178</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E179" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F179" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="G179" s="29"/>
+      <c r="H179" s="29"/>
+      <c r="I179" s="29"/>
+    </row>
+    <row r="180" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="32">
+        <v>179</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C180" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-    </row>
-    <row r="88" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="28">
-        <v>87</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="28">
+      <c r="D180" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E180" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F180" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="29"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="32">
+        <v>180</v>
+      </c>
+      <c r="B181" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E181" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F181" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="G181" s="29"/>
+      <c r="H181" s="29"/>
+      <c r="I181" s="29"/>
+    </row>
+    <row r="182" spans="1:9" ht="42.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="32">
+        <v>181</v>
+      </c>
+      <c r="B182" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="F89" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-    </row>
-    <row r="90" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="28">
+      <c r="C182" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="28">
+      <c r="D182" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E182" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F182" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G182" s="26"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="29"/>
+    </row>
+    <row r="183" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="32">
+        <v>182</v>
+      </c>
+      <c r="B183" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E183" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="F183" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="G183" s="29"/>
+      <c r="H183" s="29"/>
+      <c r="I183" s="29"/>
+    </row>
+    <row r="184" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="32">
+        <v>183</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E184" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F184" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="G184" s="26"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="29"/>
+    </row>
+    <row r="185" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="32">
+        <v>184</v>
+      </c>
+      <c r="B185" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E185" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F185" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="G185" s="26"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="29"/>
+    </row>
+    <row r="186" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="32">
+        <v>185</v>
+      </c>
+      <c r="B186" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E186" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F186" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="G186" s="29"/>
+      <c r="H186" s="29"/>
+      <c r="I186" s="29"/>
+    </row>
+    <row r="187" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="32">
+        <v>186</v>
+      </c>
+      <c r="B187" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="C187" s="37"/>
+      <c r="D187" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E187" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F187" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="G187" s="37"/>
+      <c r="H187" s="37"/>
+      <c r="I187" s="37"/>
+    </row>
+    <row r="188" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="32">
+        <v>187</v>
+      </c>
+      <c r="B188" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="C188" s="37"/>
+      <c r="D188" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F188" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="G188" s="37"/>
+      <c r="H188" s="37"/>
+      <c r="I188" s="37"/>
+    </row>
+    <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="32">
+        <v>188</v>
+      </c>
+      <c r="B189" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C189" s="37"/>
+      <c r="D189" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F189" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="G189" s="37"/>
+      <c r="H189" s="37"/>
+      <c r="I189" s="37"/>
+    </row>
+    <row r="190" spans="1:9" ht="169.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="32">
+        <v>189</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="C190" s="37"/>
+      <c r="D190" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E190" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F190" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="G190" s="37"/>
+      <c r="H190" s="37"/>
+      <c r="I190" s="37"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="32">
+        <v>190</v>
+      </c>
+      <c r="B191" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E191" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F191" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="G191" s="29"/>
+      <c r="H191" s="29"/>
+      <c r="I191" s="29"/>
+    </row>
+    <row r="192" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="32">
+        <v>191</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E192" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="29"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="32">
+        <v>192</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C193" s="27"/>
+      <c r="D193" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E193" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F193" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="G193" s="26"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="29"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="32">
+        <v>193</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E194" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F194" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G194" s="26"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="29"/>
+    </row>
+    <row r="195" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="32">
+        <v>194</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E195" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="29"/>
+    </row>
+    <row r="196" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="32">
+        <v>195</v>
+      </c>
+      <c r="B196" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="C196" s="37"/>
+      <c r="D196" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E196" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F196" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="G196" s="37"/>
+      <c r="H196" s="37"/>
+      <c r="I196" s="37"/>
+    </row>
+    <row r="197" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="32">
+        <v>196</v>
+      </c>
+      <c r="B197" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E91" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="F91" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="28">
+      <c r="C197" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-    </row>
-    <row r="93" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="28">
-        <v>92</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E93" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="F93" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="28">
-        <v>93</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E94" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="F94" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="28">
-        <v>94</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-    </row>
-    <row r="96" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="28">
-        <v>95</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-    </row>
-    <row r="97" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="28">
-        <v>96</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-    </row>
-    <row r="98" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="28">
-        <v>97</v>
-      </c>
-      <c r="B98" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F98" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-    </row>
-    <row r="99" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="28">
-        <v>98</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-    </row>
-    <row r="100" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="28">
-        <v>99</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E100" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="F100" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-    </row>
-    <row r="101" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="28">
-        <v>100</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F101" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G101" s="32"/>
-      <c r="H101" s="33"/>
-    </row>
-    <row r="102" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="28">
-        <v>101</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="F102" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-    </row>
-    <row r="103" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="28">
-        <v>102</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-    </row>
-    <row r="104" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="28">
-        <v>103</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F104" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="28">
-        <v>104</v>
-      </c>
-      <c r="B105" s="36" t="s">
+      <c r="D197" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E197" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F197" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="G197" s="26"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="29"/>
+    </row>
+    <row r="198" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="32">
+        <v>197</v>
+      </c>
+      <c r="B198" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E105" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="F105" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="28">
-        <v>105</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E106" s="30"/>
-      <c r="F106" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-    </row>
-    <row r="107" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="28">
-        <v>106</v>
-      </c>
-      <c r="B107" s="30" t="s">
+      <c r="C198" s="29"/>
+      <c r="D198" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E198" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F198" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="G198" s="29"/>
+      <c r="H198" s="29"/>
+      <c r="I198" s="29"/>
+    </row>
+    <row r="199" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="32">
+        <v>198</v>
+      </c>
+      <c r="B199" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E199" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F199" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="G199" s="29"/>
+      <c r="H199" s="29"/>
+      <c r="I199" s="29"/>
+    </row>
+    <row r="200" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="32">
+        <v>199</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="C200" s="29"/>
+      <c r="D200" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E200" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F200" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="G200" s="29"/>
+      <c r="H200" s="29"/>
+      <c r="I200" s="29"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="32">
+        <v>200</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E201" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="G201" s="29"/>
+      <c r="H201" s="29"/>
+      <c r="I201" s="29"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="32">
         <v>201</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="B202" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D107" s="30"/>
-      <c r="E107" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="F107" s="33" t="s">
+      <c r="E202" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F202" s="29"/>
+      <c r="G202" s="29"/>
+      <c r="H202" s="29"/>
+      <c r="I202" s="29"/>
+    </row>
+    <row r="203" spans="1:9" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="32">
+        <v>202</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E203" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F203" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G203" s="29"/>
+      <c r="H203" s="29"/>
+      <c r="I203" s="29"/>
+    </row>
+    <row r="204" spans="1:9" ht="56.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="32">
+        <v>203</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C204" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D204" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E204" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F204" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="29"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="32">
+        <v>204</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E205" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F205" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="G205" s="26"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="29"/>
+    </row>
+    <row r="206" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="32">
         <v>205</v>
       </c>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="28">
-        <v>107</v>
-      </c>
-      <c r="B108" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="D108" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E108" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F108" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="28">
-        <v>108</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-    </row>
-    <row r="110" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="28">
-        <v>109</v>
-      </c>
-      <c r="B110" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D110" s="30"/>
-      <c r="E110" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="28">
-        <v>110</v>
-      </c>
-      <c r="B111" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="28">
-        <v>111</v>
-      </c>
-      <c r="B112" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-    </row>
-    <row r="113" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="28">
-        <v>112</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F113" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="28">
-        <v>113</v>
-      </c>
-      <c r="B114" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="33"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="28">
-        <v>114</v>
-      </c>
-      <c r="B115" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="28">
-        <v>115</v>
-      </c>
-      <c r="B116" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-    </row>
-    <row r="117" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="28">
-        <v>116</v>
-      </c>
-      <c r="B117" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="28">
-        <v>117</v>
-      </c>
-      <c r="B118" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E118" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="F118" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="28">
-        <v>118</v>
-      </c>
-      <c r="B119" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E119" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="F119" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-    </row>
-    <row r="120" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="28">
-        <v>119</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F120" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-    </row>
-    <row r="121" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="28">
-        <v>120</v>
-      </c>
-      <c r="B121" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="C121" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-    </row>
-    <row r="122" spans="1:8" ht="70.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="28">
-        <v>121</v>
-      </c>
-      <c r="B122" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="C122" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-    </row>
-    <row r="123" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="28">
-        <v>122</v>
-      </c>
-      <c r="B123" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="C123" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="28">
-        <v>123</v>
-      </c>
-      <c r="B124" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="D124" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E124" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="F124" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-    </row>
-    <row r="125" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="28">
-        <v>124</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-    </row>
-    <row r="126" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="28">
-        <v>125</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="F126" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-    </row>
-    <row r="127" spans="1:8" ht="98.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="28">
-        <v>126</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E127" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="F127" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-    </row>
-    <row r="128" spans="1:8" ht="56.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="28">
-        <v>127</v>
-      </c>
-      <c r="B128" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E128" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="F128" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-    </row>
-    <row r="129" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="28">
-        <v>128</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F129" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-    </row>
-    <row r="130" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="28">
-        <v>129</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D130" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F130" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G130" s="32"/>
-      <c r="H130" s="33"/>
-    </row>
-    <row r="131" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="28">
-        <v>130</v>
-      </c>
-      <c r="B131" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E131" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="F131" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-    </row>
-    <row r="132" spans="1:8" ht="42.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="28">
-        <v>131</v>
-      </c>
-      <c r="B132" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D132" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F132" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G132" s="32"/>
-      <c r="H132" s="33"/>
-    </row>
-    <row r="133" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="28">
-        <v>132</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F133" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G133" s="32"/>
-      <c r="H133" s="33"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="28">
-        <v>133</v>
-      </c>
-      <c r="B134" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E134" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="28">
-        <v>134</v>
-      </c>
-      <c r="B135" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C135" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="D135" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E135" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-    </row>
-    <row r="136" spans="1:8" ht="98.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="28">
-        <v>135</v>
-      </c>
-      <c r="B136" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-    </row>
-    <row r="137" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="28">
-        <v>136</v>
-      </c>
-      <c r="B137" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="D137" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="28">
-        <v>137</v>
-      </c>
-      <c r="B138" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="F138" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="G138" s="32"/>
-      <c r="H138" s="33"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="28">
-        <v>138</v>
-      </c>
-      <c r="B139" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D139" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F139" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G139" s="32"/>
-      <c r="H139" s="33"/>
-    </row>
-    <row r="140" spans="1:8" ht="84.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="28">
-        <v>139</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-    </row>
-    <row r="141" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="28">
-        <v>140</v>
-      </c>
-      <c r="B141" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D141" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F141" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G141" s="32"/>
-      <c r="H141" s="33"/>
-    </row>
-    <row r="142" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="28">
-        <v>141</v>
-      </c>
-      <c r="B142" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E142" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F142" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-    </row>
-    <row r="143" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="28">
-        <v>142</v>
-      </c>
-      <c r="B143" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="E143" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="F143" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="28">
-        <v>143</v>
-      </c>
-      <c r="B144" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E144" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-    </row>
-    <row r="145" spans="1:8" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="28">
-        <v>144</v>
-      </c>
-      <c r="B145" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-    </row>
-    <row r="146" spans="1:8" ht="98.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="28">
-        <v>145</v>
-      </c>
-      <c r="B146" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D146" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="F146" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="28">
-        <v>146</v>
-      </c>
-      <c r="B147" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="F147" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="G147" s="32"/>
-      <c r="H147" s="33"/>
+      <c r="B206" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="C206" s="37"/>
+      <c r="D206" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E206" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F206" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="G206" s="37"/>
+      <c r="H206" s="37"/>
+      <c r="I206" s="37"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H147">
-    <sortCondition ref="B1:B147"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I207">
+    <sortCondition ref="B1:B207"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G88" r:id="rId1" xr:uid="{A59A286A-1E4D-4302-B527-923F6C0BE791}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D509F210-CAD3-438A-9653-43F68F5C50EE}">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -5330,16 +7458,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
       <c r="G12" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -5348,16 +7476,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="3"/>
       <c r="G13" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -5366,16 +7494,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="3"/>
       <c r="G14" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -5439,29 +7567,64 @@
       <c r="G19" s="7"/>
       <c r="H19" s="3"/>
     </row>
+    <row r="31" spans="1:8" ht="34.200000000000003" x14ac:dyDescent="0.5">
+      <c r="D31" s="34" t="s">
+        <v>550</v>
+      </c>
+    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B32" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B33" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
+        <v>364</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="D33" s="35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B34" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.5">
+        <v>365</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="22.8" x14ac:dyDescent="0.5">
       <c r="B35" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B36" s="12" t="s">
-        <v>425</v>
+        <v>366</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="D36" s="35" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="34.200000000000003" x14ac:dyDescent="0.5">
+      <c r="B37" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="22.8" x14ac:dyDescent="0.5">
+      <c r="B38" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="22.8" x14ac:dyDescent="0.5">
+      <c r="D39" s="35" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5520,7 +7683,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="13" t="s">
@@ -5537,14 +7700,14 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.55000000000000004">
@@ -5556,11 +7719,11 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="13" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>44</v>
@@ -5577,14 +7740,14 @@
         <v>51</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -5596,11 +7759,11 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="24" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G7" s="20"/>
     </row>
@@ -5615,11 +7778,11 @@
         <v>125</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="24" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G8" s="20"/>
     </row>
@@ -5634,11 +7797,11 @@
         <v>144</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="24" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G9" s="20"/>
     </row>
@@ -5653,7 +7816,7 @@
         <v>155</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -5668,7 +7831,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="13" t="s">
@@ -5687,7 +7850,7 @@
         <v>127</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
@@ -5706,7 +7869,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="21" t="s">
@@ -5723,7 +7886,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="13" t="s">
@@ -5744,7 +7907,7 @@
         <v>145</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -5759,7 +7922,7 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="13" t="s">
@@ -5778,7 +7941,7 @@
         <v>161</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="24" t="s">
@@ -5795,7 +7958,7 @@
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="24"/>
@@ -5810,7 +7973,7 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -5827,7 +7990,7 @@
         <v>62</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="13" t="s">
@@ -5846,7 +8009,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="13" t="s">
@@ -5865,7 +8028,7 @@
         <v>108</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21" t="s">
@@ -5884,7 +8047,7 @@
         <v>142</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="24" t="s">
@@ -5901,7 +8064,7 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="13" t="s">
@@ -5920,7 +8083,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="13" t="s">
@@ -5939,7 +8102,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
@@ -5956,7 +8119,7 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="13" t="s">
@@ -5973,7 +8136,7 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="13" t="s">
@@ -5990,7 +8153,7 @@
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -6005,7 +8168,7 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="13" t="s">
@@ -6024,7 +8187,7 @@
         <v>141</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="24" t="s">
@@ -6041,7 +8204,7 @@
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -6056,7 +8219,7 @@
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="24"/>
@@ -6073,7 +8236,7 @@
         <v>154</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -6090,7 +8253,7 @@
         <v>156</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -6105,7 +8268,7 @@
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -6122,7 +8285,7 @@
         <v>121</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="24" t="s">
@@ -6139,7 +8302,7 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="24" t="s">
@@ -6158,7 +8321,7 @@
         <v>147</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="24" t="s">
@@ -6177,7 +8340,7 @@
         <v>143</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="24" t="s">
@@ -6196,7 +8359,7 @@
         <v>116</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24" t="s">
@@ -6215,7 +8378,7 @@
         <v>86</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="13" t="s">
@@ -6234,7 +8397,7 @@
         <v>89</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="21" t="s">
@@ -6253,7 +8416,7 @@
         <v>95</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="21" t="s">
@@ -6270,7 +8433,7 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="21" t="s">
@@ -6289,7 +8452,7 @@
         <v>71</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="13" t="s">
@@ -6308,7 +8471,7 @@
         <v>106</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="21" t="s">
@@ -6327,7 +8490,7 @@
         <v>113</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="24" t="s">
@@ -6346,7 +8509,7 @@
         <v>91</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="21" t="s">
@@ -6365,7 +8528,7 @@
         <v>117</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="19" t="s">
@@ -6434,45 +8597,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E94DDCB-8980-4864-AD05-4BBDD9EF1CC4}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>398</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
